--- a/attach/群内交流情况.xlsx
+++ b/attach/群内交流情况.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>预付卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,47 +78,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇杰 中国银行对公渠道PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张泽雄-民生金服 项目总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付清结算流程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李钦珑-深圳优讯-PM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张宇杰 中国银行对公渠道PM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张泽雄-民生金服 项目总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付清结算流程简介</t>
+    <t>李兴-有赞技术专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有赞支付架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,11 +192,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -473,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,139 +497,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42866</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42867</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>42870</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42871</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>42871</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>42872</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>42873</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>42874</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42875</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>42876</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>42877</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>42872</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>42878</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>42879</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>42880</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>42873</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>42881</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>42882</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>42883</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>42874</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>42884</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>42885</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>42888</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/attach/群内交流情况.xlsx
+++ b/attach/群内交流情况.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>预付卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,27 +110,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>支付清结算流程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李钦珑-深圳优讯-PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兴-有赞技术专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有赞支付架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄根华-民生易贷产品总监</t>
+  </si>
+  <si>
+    <t>银行存管系统</t>
+  </si>
+  <si>
     <t>张泽雄-民生金服 项目总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付清结算流程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李钦珑-深圳优讯-PM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李兴-有赞技术专家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有赞支付架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +491,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -575,7 +581,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -590,10 +596,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -617,7 +623,7 @@
         <v>42874</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -649,10 +655,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -663,8 +669,12 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -694,7 +704,7 @@
         <v>42881</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/attach/群内交流情况.xlsx
+++ b/attach/群内交流情况.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="490">
   <si>
     <t>预付卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,37 +107,1427 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李钦珑-深圳优讯-PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兴-有赞技术专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有赞支付架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄根华-民生易贷产品总监</t>
+  </si>
+  <si>
+    <t>银行存管系统</t>
+  </si>
+  <si>
+    <t>张泽雄-民生金服 项目总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dz-京东金融-PM</t>
+  </si>
+  <si>
+    <t>Dz-京东金融-PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老熊-爱奇艺-技术经理-北京</t>
+  </si>
+  <si>
+    <t>Conny-惠瀜-PM-杭州</t>
+  </si>
+  <si>
+    <t>会唱歌的石头_翼支付_广州</t>
+  </si>
+  <si>
+    <t>李紫建-丰瑞祥VP-北京</t>
+  </si>
+  <si>
+    <t>Leo-超大-产品</t>
+  </si>
+  <si>
+    <t>小莫-康辉-北京</t>
+  </si>
+  <si>
+    <t>泽然-江西银行-杭州</t>
+  </si>
+  <si>
+    <t>uniker-华通-开发-上海</t>
+  </si>
+  <si>
+    <t>七七-明特-北京</t>
+  </si>
+  <si>
+    <t>沈冲-支付宝-杭州</t>
+  </si>
+  <si>
+    <t>Season-快付通-深圳</t>
+  </si>
+  <si>
+    <t>小吴_产品-承泰-上海</t>
+  </si>
+  <si>
+    <t>丹尼尔李-希望金融-PM</t>
+  </si>
+  <si>
+    <t>atom-汇付-产品-上海</t>
+  </si>
+  <si>
+    <t>黄勇发-途牛-南京</t>
+  </si>
+  <si>
+    <t>广发-龙羽-开发经理</t>
+  </si>
+  <si>
+    <t>Mahone-小牛在线-开发-深圳</t>
+  </si>
+  <si>
+    <t>owl～汇付～Pm~上海</t>
+  </si>
+  <si>
+    <t>阿杜-微众银行-程序员-深圳</t>
+  </si>
+  <si>
+    <t>刘毅_证大财富_上海</t>
+  </si>
+  <si>
+    <t>Collin-科蓝-支付项目总监-北京</t>
+  </si>
+  <si>
+    <t>阿伟-宜签-上海</t>
+  </si>
+  <si>
+    <t>Linxu-携程-产品-上海</t>
+  </si>
+  <si>
+    <t>新人-阿里-PD</t>
+  </si>
+  <si>
+    <t>小浩-天音通信-产品-北京</t>
+  </si>
+  <si>
+    <t>韩倩-房天下-北京</t>
+  </si>
+  <si>
+    <t>翼支付 广州 Feng</t>
+  </si>
+  <si>
+    <t>小Q－支付宝－杭州</t>
+  </si>
+  <si>
+    <t>Joker-洞悉-上海</t>
+  </si>
+  <si>
+    <t>vincent-美团-北京</t>
+  </si>
+  <si>
+    <t>车车_58到家_产品_北京</t>
+  </si>
+  <si>
+    <t>张洋-平安信托-账户-深圳</t>
+  </si>
+  <si>
+    <t>康典-Garena-支付pm-新加坡</t>
+  </si>
+  <si>
+    <t>candy-易派支付-产品-深圳</t>
+  </si>
+  <si>
+    <t>coral-盈华-产品-深圳</t>
+  </si>
+  <si>
+    <t>宝田爸爸-平安-上海</t>
+  </si>
+  <si>
+    <t>郭芬-中央结算公司</t>
+  </si>
+  <si>
+    <t>木刀-中天智慧-北京</t>
+  </si>
+  <si>
+    <t>人保金服乔阳</t>
+  </si>
+  <si>
+    <t>饶嘉乐-深圳-企鹅</t>
+  </si>
+  <si>
+    <t>大智若愚-翼支付-广州</t>
+  </si>
+  <si>
+    <t>Schenchan-有赞</t>
+  </si>
+  <si>
+    <t>周红仁-去哪儿支付</t>
+  </si>
+  <si>
+    <t>葛晓峰-快钱项目经理</t>
+  </si>
+  <si>
+    <t>呼呼-汇中金融产品经理</t>
+  </si>
+  <si>
+    <t>Ping++徐志涛</t>
+  </si>
+  <si>
+    <t>丁宇-微众银行产品商务</t>
+  </si>
+  <si>
+    <t>传奇-链家支付产品</t>
+  </si>
+  <si>
+    <t>李晓勇-网银架构师</t>
+  </si>
+  <si>
+    <t>李桂明-易宝支付-北京</t>
+  </si>
+  <si>
+    <t>刘杰-联通支付架构总监</t>
+  </si>
+  <si>
+    <t>李文颖-广大银行支付产品经理</t>
+  </si>
+  <si>
+    <t>Andy-银狐CTO</t>
+  </si>
+  <si>
+    <t>在路上-杉德支付架构</t>
+  </si>
+  <si>
+    <t>Richard-裕维金服技术负责</t>
+  </si>
+  <si>
+    <t>冷暖自知-风控 裕福支付 北京</t>
+  </si>
+  <si>
+    <t>sll-宜人贷-产品经理</t>
+  </si>
+  <si>
+    <t>尹月胜-盒子支付-深圳</t>
+  </si>
+  <si>
+    <t>王qz-玖富支付</t>
+  </si>
+  <si>
+    <t>杨焱-工商银行 产品经理</t>
+  </si>
+  <si>
+    <t>牙印儿-新浪支付产品经理</t>
+  </si>
+  <si>
+    <t>顾尚杰-阿里-支付</t>
+  </si>
+  <si>
+    <t>大树-快钱产品经理</t>
+  </si>
+  <si>
+    <t>Doni-美团-支付产品</t>
+  </si>
+  <si>
+    <t>赵艺璇-唯品会-支付风控</t>
+  </si>
+  <si>
+    <t>产品经理 亮马桥 海航集团</t>
+  </si>
+  <si>
+    <t>王新-爱奇艺-北京</t>
+  </si>
+  <si>
+    <t>yinch-滴滴金融-研发</t>
+  </si>
+  <si>
+    <t>蒋蕾-唯品会 支付业务 架构师</t>
+  </si>
+  <si>
+    <t>黄冈-北京敦煌网高级产品经理</t>
+  </si>
+  <si>
+    <t>A祁子-技术总监 首付游</t>
+  </si>
+  <si>
+    <t>人生几何-农行软开 快捷支付开发</t>
+  </si>
+  <si>
+    <t>三先生-易联汇华-金融产品经理</t>
+  </si>
+  <si>
+    <t>Fiona-支付结算产品经理-优酷</t>
+  </si>
+  <si>
+    <t>Bison-拉卡拉北京网络金融部副总</t>
+  </si>
+  <si>
+    <t>汪婷-软开-民生银行-北京</t>
+  </si>
+  <si>
+    <t>小丹KG-华兴银行</t>
+  </si>
+  <si>
+    <t>蘑菇街_陈宗</t>
+  </si>
+  <si>
+    <t>张彦龙-光大电子银行-郑州</t>
+  </si>
+  <si>
+    <t>黄菲-富友-上海</t>
+  </si>
+  <si>
+    <t>leona-ping++产品</t>
+  </si>
+  <si>
+    <t>钟文帅-移付宝科技-产品经理</t>
+  </si>
+  <si>
+    <t>高顺生_瑞钱宝_北京</t>
+  </si>
+  <si>
+    <t>途牛旅游网王磊</t>
+  </si>
+  <si>
+    <t>啵🍭板糖-产品专员 途牛</t>
+  </si>
+  <si>
+    <t>范文敏-农业银行高级产品经理</t>
+  </si>
+  <si>
+    <t>刘辉妙-洋码头-技术总监</t>
+  </si>
+  <si>
+    <t>刘贞平-支付产品经理，捷易付</t>
+  </si>
+  <si>
+    <t>徐俊-产品经理-量化派</t>
+  </si>
+  <si>
+    <t>王杰瑜-支付产品经理-中金汇通</t>
+  </si>
+  <si>
+    <t>xiaOv-兴业银行</t>
+  </si>
+  <si>
+    <t>孙友群-O2O支付产品经理招商信用卡</t>
+  </si>
+  <si>
+    <t>chaney-技术总监，环球易购</t>
+  </si>
+  <si>
+    <t>胡圣 支付产品经理 猪八戒网</t>
+  </si>
+  <si>
+    <t>张小凡-支付产品经理-驴妈妈旅游</t>
+  </si>
+  <si>
+    <t>安菲尔德鹭-微众银行高级产品经理</t>
+  </si>
+  <si>
+    <t>webber-研发总监，途牛</t>
+  </si>
+  <si>
+    <t>田浩沛-银生宝电子支付公司技术总</t>
+  </si>
+  <si>
+    <t>郑丽娟-通联-产品经理</t>
+  </si>
+  <si>
+    <t>Toma-平安产品经理</t>
+  </si>
+  <si>
+    <t>Flyer-信用风险审核 paypal 上海</t>
+  </si>
+  <si>
+    <t>Pat-海尔互金架构师</t>
+  </si>
+  <si>
+    <t>pangning-安邦集团收付团队研发</t>
+  </si>
+  <si>
+    <t>hardy-唯品会金融</t>
+  </si>
+  <si>
+    <t>潘诚-拉卡拉-产品经理</t>
+  </si>
+  <si>
+    <t>cp.up前融宝风控leader</t>
+  </si>
+  <si>
+    <t>拉卡拉-产品</t>
+  </si>
+  <si>
+    <t>suevip-技术经理 畅捷通 北京</t>
+  </si>
+  <si>
+    <t>乐富支付产品经理</t>
+  </si>
+  <si>
+    <t>秦红胜-CTO-共致开源-</t>
+  </si>
+  <si>
+    <t>贾华伟-产品经理--美菜网</t>
+  </si>
+  <si>
+    <t>ls.miao-支付风控工程师 网易金融</t>
+  </si>
+  <si>
+    <t>Dylan-支付后台开发-美团</t>
+  </si>
+  <si>
+    <t>戴斌-招行信用卡</t>
+  </si>
+  <si>
+    <t>Carina-陆金所产品</t>
+  </si>
+  <si>
+    <t>黄侃B站产品</t>
+  </si>
+  <si>
+    <t>宋林-汇联金融架构师</t>
+  </si>
+  <si>
+    <t>拓维信息支付产品经理</t>
+  </si>
+  <si>
+    <t>吴昊 中国支付通</t>
+  </si>
+  <si>
+    <t>吴锦涛 和创金服</t>
+  </si>
+  <si>
+    <t>李通，社区半径产品专家</t>
+  </si>
+  <si>
+    <t>路杨 嘉联支付产品</t>
+  </si>
+  <si>
+    <t>木老-广东人行支付结算科</t>
+  </si>
+  <si>
+    <t>徐玮 理房通支付开发经理</t>
+  </si>
+  <si>
+    <t>闪闪-联通支付产品经理</t>
+  </si>
+  <si>
+    <t>高阳-中信银行信用卡中心架构师</t>
+  </si>
+  <si>
+    <t>王鹏-北京集奥聚合科技产品总监</t>
+  </si>
+  <si>
+    <t>昕小姐-1号店产品</t>
+  </si>
+  <si>
+    <t>潘儒刚-连连支付PM</t>
+  </si>
+  <si>
+    <t>王志誉-网商银行 支付结算产品运营</t>
+  </si>
+  <si>
+    <t>陈孟军-鄞州银行-开发PL</t>
+  </si>
+  <si>
+    <t>李丹-风控经理-双乾支付</t>
+  </si>
+  <si>
+    <t>李子枞-齐商银行 电子银行部</t>
+  </si>
+  <si>
+    <t>陈琳-阿里巴巴</t>
+  </si>
+  <si>
+    <t>林桐-graphsql-风控架构</t>
+  </si>
+  <si>
+    <t>WillYang-嘉联支付-架构师</t>
+  </si>
+  <si>
+    <t>落雪飞花-农信互联-开发经理</t>
+  </si>
+  <si>
+    <t>许巍-微盟-支付系统</t>
+  </si>
+  <si>
+    <t>EagleCheng-兴业银行架构师</t>
+  </si>
+  <si>
+    <t>途牛陈世宏</t>
+  </si>
+  <si>
+    <t>李刚-芯火科技CEO</t>
+  </si>
+  <si>
+    <t>波波-邮储电子银行PM</t>
+  </si>
+  <si>
+    <t>朱雄新-广发支付组</t>
+  </si>
+  <si>
+    <t>惊鸿-付钱拉PM</t>
+  </si>
+  <si>
+    <t>谭志晖-开联通副总</t>
+  </si>
+  <si>
+    <t>潼潼爸-兴业数字金融PM</t>
+  </si>
+  <si>
+    <t>fangfang-随行付清结算</t>
+  </si>
+  <si>
+    <t>李小-交通银行商户运营 支付PM</t>
+  </si>
+  <si>
+    <t>降峰-百度金融</t>
+  </si>
+  <si>
+    <t>上海块钱业务分析师</t>
+  </si>
+  <si>
+    <t>Burn-B站支付产品</t>
+  </si>
+  <si>
+    <t>陈琳 中移动PM</t>
+  </si>
+  <si>
+    <t>彭睿-奇虎360金融支付PM</t>
+  </si>
+  <si>
+    <t>老周-苏宁金融</t>
+  </si>
+  <si>
+    <t>云峰-数信-风控-北京</t>
+  </si>
+  <si>
+    <t>王宝茁-量化派PM</t>
+  </si>
+  <si>
+    <t>李奔-富友-支付PM</t>
+  </si>
+  <si>
+    <t>常露-通联支付-跨境支付产品</t>
+  </si>
+  <si>
+    <t>Marily-易联支付PM</t>
+  </si>
+  <si>
+    <t>汪森-翼支付PM</t>
+  </si>
+  <si>
+    <t>老樊-滴滴技术专家</t>
+  </si>
+  <si>
+    <t>一wan白水-pingpong跨境金融PM</t>
+  </si>
+  <si>
+    <t>garry-研发组长-翼支付</t>
+  </si>
+  <si>
+    <t>赵少龙-平安信托工程师</t>
+  </si>
+  <si>
+    <t>尹琎-深圳优融PM</t>
+  </si>
+  <si>
+    <t>张叶-付费通-支付PM</t>
+  </si>
+  <si>
+    <t>董泽勇-重庆易极付-支付PL</t>
+  </si>
+  <si>
+    <t>李行-途牛支付中心研发总监</t>
+  </si>
+  <si>
+    <t>梅铮-农行网络支付处</t>
+  </si>
+  <si>
+    <t>李征烈-钱通支付PM</t>
+  </si>
+  <si>
+    <t>KentZhu</t>
+  </si>
+  <si>
+    <t>郭峰-钱方好近支付PM</t>
+  </si>
+  <si>
+    <t>满月明 中移动资金归集负责</t>
+  </si>
+  <si>
+    <t>Caligula-建行主机系统建设</t>
+  </si>
+  <si>
+    <t>王晓韡-通联支付-PM</t>
+  </si>
+  <si>
+    <t>萌小喵-爱贝计费高级PM</t>
+  </si>
+  <si>
+    <t>雨人-百度钱包-工程师</t>
+  </si>
+  <si>
+    <t>王燕强-房天下-支付网关PL</t>
+  </si>
+  <si>
+    <t>朱海军-腾讯</t>
+  </si>
+  <si>
+    <t>郝鹏-民生银行-PM</t>
+  </si>
+  <si>
+    <t>Eric乐-工行风控</t>
+  </si>
+  <si>
+    <t>华-南京亚软-IT总监</t>
+  </si>
+  <si>
+    <t>大亮-易宝支付-工程师</t>
+  </si>
+  <si>
+    <t>阿豪-一号车交易和支付PM</t>
+  </si>
+  <si>
+    <t>Boxer-桔子理财-技术总监</t>
+  </si>
+  <si>
+    <t>大宇-快马医疗-CTO</t>
+  </si>
+  <si>
+    <t>littlehero-运满满-PM</t>
+  </si>
+  <si>
+    <t>汪晓明-什马金融-CTO</t>
+  </si>
+  <si>
+    <t>zhangjx-朋来先敬-CTO</t>
+  </si>
+  <si>
+    <t>Tim-魔线科技-产品总监</t>
+  </si>
+  <si>
+    <t>小臣-唯品会-技术开发</t>
+  </si>
+  <si>
+    <t>李钦珑-深圳优讯-PM</t>
+  </si>
+  <si>
+    <t>wantasy-壹钱包-数据分析</t>
+  </si>
+  <si>
+    <t>Michael-国泰君安-研发－上海</t>
+  </si>
+  <si>
+    <t>张长工-上海银行互金部-PM</t>
+  </si>
+  <si>
+    <t>sunshine-苏宁金融</t>
+  </si>
+  <si>
+    <t>圆-猪八戒-高级PM</t>
+  </si>
+  <si>
+    <t>Charle-跨境通-清结算PM</t>
+  </si>
+  <si>
+    <t>韩廷森-银联商务PM</t>
+  </si>
+  <si>
+    <t>崔莹峰-恒昌利通-架构</t>
+  </si>
+  <si>
+    <t>周亮-找钢网-金融系统PL</t>
+  </si>
+  <si>
+    <t>white-明特量化-后台PM</t>
+  </si>
+  <si>
+    <t>小七-拉卡拉-工程师</t>
+  </si>
+  <si>
+    <t>jacky-讯联数据-研发总监</t>
+  </si>
+  <si>
+    <t>麦芽妈-汇中财富-PM</t>
+  </si>
+  <si>
+    <t>王鑫-网易产品经理</t>
+  </si>
+  <si>
+    <t>淡风林-中移动杭州研发中心PM</t>
+  </si>
+  <si>
+    <t>亡目丁-币港湾PM</t>
+  </si>
+  <si>
+    <t>王向东-卡联科技-PM</t>
+  </si>
+  <si>
+    <t>席纯-随行付-PM</t>
+  </si>
+  <si>
+    <t>王瑞-嘉银金科-技术总监</t>
+  </si>
+  <si>
+    <t>光光-Ping++PL</t>
+  </si>
+  <si>
+    <t>xjx 人行清结算中心经理</t>
+  </si>
+  <si>
+    <t>Khan_工行支付架构师</t>
+  </si>
+  <si>
+    <t>唐-大件会-CTo</t>
+  </si>
+  <si>
+    <t>椰子-杭州有云科技PM</t>
+  </si>
+  <si>
+    <t>mockingjay-卡行天下架构</t>
+  </si>
+  <si>
+    <t>Tim-深圳百灵鸟-架构</t>
+  </si>
+  <si>
+    <t>sun rain-易贷网PM</t>
+  </si>
+  <si>
+    <t>宏-前海互金PL</t>
+  </si>
+  <si>
+    <t>hanfeng-永辉超市架构师</t>
+  </si>
+  <si>
+    <t>joe-民生银行产品经理</t>
+  </si>
+  <si>
+    <t>superjj-微众银行PM</t>
+  </si>
+  <si>
+    <t>樊晴-广发银行-PM</t>
+  </si>
+  <si>
+    <t>程琳-杉德支付-PM</t>
+  </si>
+  <si>
+    <t>煜-易物网-技术总监</t>
+  </si>
+  <si>
+    <t>郭衍奎-联通支付</t>
+  </si>
+  <si>
+    <t>盛振德-怪咖网络CEO</t>
+  </si>
+  <si>
+    <t>大状-上海迅联数据司</t>
+  </si>
+  <si>
+    <t>林志豪-腾讯</t>
+  </si>
+  <si>
+    <t>李飞-产品经理 掌众金融</t>
+  </si>
+  <si>
+    <t>黄炎-盛京银行</t>
+  </si>
+  <si>
+    <t>徐传-收付通-研发部门经理</t>
+  </si>
+  <si>
+    <t>黑人-易宝支付工程师</t>
+  </si>
+  <si>
+    <t>王晓东-分点点-技术总监</t>
+  </si>
+  <si>
+    <t>戚士磊-平安银行-网金PM</t>
+  </si>
+  <si>
+    <t>李维丹-招商银行</t>
+  </si>
+  <si>
+    <t>patrick-unicorn-蚂蚁金服</t>
+  </si>
+  <si>
+    <t>曹志杨-唯品会主任工程师</t>
+  </si>
+  <si>
+    <t>忘乎所以-腾讯-支付线风控后台开发</t>
+  </si>
+  <si>
+    <t>王彪-平安证券</t>
+  </si>
+  <si>
+    <t>何鹏飞-猪八戒网支付产品经理</t>
+  </si>
+  <si>
+    <t>沈光辉-银联风控-上海</t>
+  </si>
+  <si>
+    <t>Alvin-支付宝-杭州</t>
+  </si>
+  <si>
+    <t>孙辉</t>
+  </si>
+  <si>
+    <t>david-橙子支付-技术总监</t>
+  </si>
+  <si>
+    <t>SmoothieMa-联金所-PM</t>
+  </si>
+  <si>
+    <t>Yann-阿里无线服务端开发</t>
+  </si>
+  <si>
+    <t>仙贝-中汇支付 技术主管</t>
+  </si>
+  <si>
+    <t>汪皎洁-广发银行技术PL</t>
+  </si>
+  <si>
+    <t>笔尖农民-唐山银行PL</t>
+  </si>
+  <si>
+    <t>hello小迷糊 微信支付产品运营</t>
+  </si>
+  <si>
+    <t>祁超-网易支付Java开发</t>
+  </si>
+  <si>
+    <t>勇瀚-微知网络架构</t>
+  </si>
+  <si>
+    <t>黄丽娜 小赢理财PM</t>
+  </si>
+  <si>
+    <t>孙军-中证互联PM</t>
+  </si>
+  <si>
+    <t>媛媛-鄞州银行</t>
+  </si>
+  <si>
+    <t>May-Amy-杨卢美 鄞州银行 科技部</t>
+  </si>
+  <si>
+    <t>张鑫-开发总监 中金支付</t>
+  </si>
+  <si>
+    <t>zhengchong-中国印钞造币总公司</t>
+  </si>
+  <si>
+    <t>占进冬-科大讯飞-开发组长</t>
+  </si>
+  <si>
+    <t>石-鄞州银行，科技部开发</t>
+  </si>
+  <si>
+    <t>李政-国付宝技术经理</t>
+  </si>
+  <si>
+    <t>封国辉-广发银行-系统设计</t>
+  </si>
+  <si>
+    <t>武义-农行软开工程师</t>
+  </si>
+  <si>
+    <t>文奇-有赞-杭州</t>
+  </si>
+  <si>
+    <t>Peter-找钢网-PM</t>
+  </si>
+  <si>
+    <t>钟巍 一达通 开发</t>
+  </si>
+  <si>
+    <t>神与我同zai</t>
+  </si>
+  <si>
+    <t>杨俊 酷宝支付风控合规</t>
+  </si>
+  <si>
+    <t>Danier–移联-支付PM-深圳</t>
+  </si>
+  <si>
+    <t>庞小璇</t>
+  </si>
+  <si>
+    <t>龚伏兰-爱奇艺-北京</t>
+  </si>
+  <si>
+    <t>罗科勤 银联 风控产品经理</t>
+  </si>
+  <si>
+    <t>张哲-爱奇艺-北京</t>
+  </si>
+  <si>
+    <t>南迪-永乐-架构-北京</t>
+  </si>
+  <si>
+    <t>苏明磊</t>
+  </si>
+  <si>
+    <t>杨培旭</t>
+  </si>
+  <si>
+    <t>刘璋-清结算产品经理 微医</t>
+  </si>
+  <si>
+    <t>lke-复星-支付清结算PM</t>
+  </si>
+  <si>
+    <t>阿兵-美利金融-PL</t>
+  </si>
+  <si>
+    <t>lishuang-富友支付 产品经理</t>
+  </si>
+  <si>
+    <t>龚福燕-猪八戒-产品经理</t>
+  </si>
+  <si>
+    <t>lisp 财付通结算财务</t>
+  </si>
+  <si>
+    <t>Toby-分钱宝-架构师</t>
+  </si>
+  <si>
+    <t>Wall-E 爱贝云计费产品主管</t>
+  </si>
+  <si>
+    <t>胡晓蕾中旅银行 项目总监</t>
+  </si>
+  <si>
+    <t>田家宾-有赞-java开发</t>
+  </si>
+  <si>
+    <t>茄子-陆金所-支付部</t>
+  </si>
+  <si>
+    <t>罗强-上海讯联数据 PM</t>
+  </si>
+  <si>
+    <t>吴聪帅-平安银行-研发</t>
+  </si>
+  <si>
+    <t>谢烨</t>
+  </si>
+  <si>
+    <t>杨大兴央金所的资深产品经理</t>
+  </si>
+  <si>
+    <t>Josia-京东-风控</t>
+  </si>
+  <si>
+    <t>张冲</t>
+  </si>
+  <si>
+    <t>木木三寿-平安银行</t>
+  </si>
+  <si>
+    <t>盆栽是个杀手-有赞-清结算</t>
+  </si>
+  <si>
+    <t>荣飞-有赞Java资深工程师</t>
+  </si>
+  <si>
+    <t>耳东走己 人保金融 PL</t>
+  </si>
+  <si>
+    <t>黄溢东-中金汇通-开发-厦门</t>
+  </si>
+  <si>
+    <t>陈儒-微众文化-技术总监</t>
+  </si>
+  <si>
+    <t>张雷-AB-研发</t>
+  </si>
+  <si>
+    <t>李伟锋-蘑菇街金融-杭州</t>
+  </si>
+  <si>
+    <t>夏宇-蘑菇街-技术-杭州</t>
+  </si>
+  <si>
+    <t>风姿-蘑菇街-技术-杭州</t>
+  </si>
+  <si>
+    <t>昊天-蘑菇街-技术-杭州</t>
+  </si>
+  <si>
+    <t>长路々精彩-工行数据中心-部门经理</t>
+  </si>
+  <si>
+    <t>楷，事务开发，腾讯，深圳</t>
+  </si>
+  <si>
+    <t>刘金 -有赞-研发-杭州</t>
+  </si>
+  <si>
+    <t>泽-微店-RD-北京</t>
+  </si>
+  <si>
+    <t>刘佳明-微店-研发-北京</t>
+  </si>
+  <si>
+    <t>宜信-孟凡柱-研发-北京</t>
+  </si>
+  <si>
+    <t>王硕-京东金融-北京</t>
+  </si>
+  <si>
+    <t>李恒军</t>
+  </si>
+  <si>
+    <t>刘恋-海航新生</t>
+  </si>
+  <si>
+    <t>劉皇叔-什金融-研发-上海</t>
+  </si>
+  <si>
+    <t>难得糊涂-PM-什马金融</t>
+  </si>
+  <si>
+    <t>Kelly.Z-折800风控主管</t>
+  </si>
+  <si>
+    <t>冯硕-理房通</t>
+  </si>
+  <si>
+    <t>豆角茄子-卡友支付-PM</t>
+  </si>
+  <si>
+    <t>安全第一-产品主管雅酷</t>
+  </si>
+  <si>
+    <t>吕剑辉-杉德-PL</t>
+  </si>
+  <si>
+    <t>mark-U掌柜-系统架构</t>
+  </si>
+  <si>
+    <t>陈思洋-东软熙康-PL</t>
+  </si>
+  <si>
+    <t>花生-新网银行PM</t>
+  </si>
+  <si>
+    <t>白涛-建行厦门开发中心项目经理</t>
+  </si>
+  <si>
+    <t>哦哦哦-招商银行卡中心</t>
+  </si>
+  <si>
+    <t>junzhu-招商银行卡中心</t>
+  </si>
+  <si>
+    <t>李承钊</t>
+  </si>
+  <si>
+    <t>乔光-招行卡中心-产品</t>
+  </si>
+  <si>
+    <t>albert郭-招行信用卡-产品经理</t>
+  </si>
+  <si>
+    <t>上海乐付-技术Alxes·凯</t>
+  </si>
+  <si>
+    <t>科蓝-研发-崔海波</t>
+  </si>
+  <si>
+    <t>李玉福@农信互联</t>
+  </si>
+  <si>
+    <t>赵业招-sand-开发</t>
+  </si>
+  <si>
+    <t>willhu-财付通-风控</t>
+  </si>
+  <si>
+    <t>Stark-产品经理，银生宝</t>
+  </si>
+  <si>
+    <t>林-杭州银行-PM</t>
+  </si>
+  <si>
+    <t>Jeremy-易物网-产品经理-广州</t>
+  </si>
+  <si>
+    <t>程林－科蓝－北京</t>
+  </si>
+  <si>
+    <t>孔晓光 丰瑞祥CTO</t>
+  </si>
+  <si>
+    <t>Summer 梁夏-丰瑞祥-GM-BJ</t>
+  </si>
+  <si>
+    <t>xEasy-优畅-深圳</t>
+  </si>
+  <si>
+    <t>Allen-盒子支付PM</t>
+  </si>
+  <si>
+    <t>张泽雄-民生金服 项目总监</t>
+  </si>
+  <si>
+    <t>空-支付产品-苏宁-南京</t>
+  </si>
+  <si>
+    <t>陈从武-去哪儿-技术总监</t>
+  </si>
+  <si>
+    <t>东方-风控策略-去哪儿</t>
+  </si>
+  <si>
+    <t>王显斌+中国支付通+上海</t>
+  </si>
+  <si>
+    <t>Tony-银行-开发副总监</t>
+  </si>
+  <si>
+    <t>can-iboxpay-pm-sz</t>
+  </si>
+  <si>
+    <t>胡德坤</t>
+  </si>
+  <si>
+    <t>韩财光-东软(前)-开发-广州</t>
+  </si>
+  <si>
+    <t>庆耀-优融-技术-深圳</t>
+  </si>
+  <si>
+    <t>肖勇-亿宏-c to</t>
+  </si>
+  <si>
+    <t>理房通卢相宁</t>
+  </si>
+  <si>
+    <t>小北-理房通-资金部</t>
+  </si>
+  <si>
+    <t>坦克-爱贝-深圳</t>
+  </si>
+  <si>
+    <t>颜小刚-爱贝-架构研发-深圳</t>
+  </si>
+  <si>
+    <t>李尚健-爱奇艺-开发</t>
+  </si>
+  <si>
+    <t>夜猫-支付产品经理 自如网</t>
+  </si>
+  <si>
+    <t>颜国平-华为安全专家</t>
+  </si>
+  <si>
+    <t>王光明-江苏云天翼付-副总</t>
+  </si>
+  <si>
+    <t>徐新才-平安证券PM</t>
+  </si>
+  <si>
+    <t>xjffr-盒子支付-风控</t>
+  </si>
+  <si>
+    <t>沈一点-恒生电子-工程师</t>
+  </si>
+  <si>
+    <t>白竹-平安银行-产品经理</t>
+  </si>
+  <si>
+    <t>陈小学学-迅联智付-架构师</t>
+  </si>
+  <si>
+    <t>李艳鹏 - 易宝支付 -架构师 -北京</t>
+  </si>
+  <si>
+    <t>刚强-京东架构师</t>
+  </si>
+  <si>
+    <t>陈跃泉-苏宁架构师</t>
+  </si>
+  <si>
+    <t>C'est la vie-科蓝-PM-北京</t>
+  </si>
+  <si>
+    <t>杨继培-泰然-PM</t>
+  </si>
+  <si>
+    <t>ray-嘉联支付-产品-深圳</t>
+  </si>
+  <si>
+    <t>W_Y</t>
+  </si>
+  <si>
+    <t>Josebruce</t>
+  </si>
+  <si>
+    <t>王瑞</t>
+  </si>
+  <si>
+    <t>横烟秋-支付宝PM</t>
+  </si>
+  <si>
+    <t>刘朝晨-中行软件中心PM</t>
+  </si>
+  <si>
+    <t>build-去哪儿-QA</t>
+  </si>
+  <si>
+    <t>徐睿-安邦保险-财务共享平台PL</t>
+  </si>
+  <si>
+    <t>邱显-融数金服-支付风控</t>
+  </si>
+  <si>
+    <t>我心悠然-架构师 恒大金服</t>
+  </si>
+  <si>
+    <t>薇-易宝支付，产品经理，Vivian</t>
+  </si>
+  <si>
+    <t>mfb-中科软支付产品负责人</t>
+  </si>
+  <si>
+    <t>唐豪 - 爱益聚合支付（产品）</t>
+  </si>
+  <si>
+    <t>张丹丹－理房通－主管－北京</t>
+  </si>
+  <si>
+    <t>文斌-爱奇艺-安全-上海</t>
+  </si>
+  <si>
+    <t>Addison yang</t>
+  </si>
+  <si>
+    <t>安静-合众-产品</t>
+  </si>
+  <si>
+    <t>杨彧－雅酷－北京</t>
+  </si>
+  <si>
+    <t>Alive-借贷宝-PL</t>
+  </si>
+  <si>
+    <t>郑宗荣-中国银联</t>
+  </si>
+  <si>
+    <t>王启荣-合众财险CTO</t>
+  </si>
+  <si>
+    <t>龚正-滴滴-支付金融</t>
+  </si>
+  <si>
+    <t>黄朋英-易联支付PM</t>
+  </si>
+  <si>
+    <t>邹成凯-联通支付</t>
+  </si>
+  <si>
+    <t>兰洋-银联</t>
+  </si>
+  <si>
+    <t>周海鹏@中信云平台</t>
+  </si>
+  <si>
+    <t>邹奇峰Tsiffeng-海航合规部</t>
+  </si>
+  <si>
+    <t>李兴-有赞技术专家</t>
+  </si>
+  <si>
+    <t>meet-支付圈-北京</t>
+  </si>
+  <si>
+    <t>蔡云龙 开联通支付</t>
+  </si>
+  <si>
+    <t>李春旸-分期乐-PM</t>
+  </si>
+  <si>
+    <t>晓波-桔子理财架构师</t>
+  </si>
+  <si>
+    <t>盒子先生-架构师，ABW</t>
+  </si>
+  <si>
+    <t>温启明-包商银行 数字银行架构师</t>
+  </si>
+  <si>
+    <t>张猛-天合阳光CTO</t>
+  </si>
+  <si>
+    <t>Aaron-携程金融支付PL</t>
+  </si>
+  <si>
+    <t>闹闹爸鼻-爱又米-支付开发</t>
+  </si>
+  <si>
+    <t>freewolf-天津金融资产交易所技术</t>
+  </si>
+  <si>
+    <t>summer-美团产品经理</t>
+  </si>
+  <si>
+    <t>WLX-支付通项目主管</t>
+  </si>
+  <si>
+    <t>wangbo-农行支付系统项目经理</t>
+  </si>
+  <si>
+    <t>党凡-飞凡士CTO</t>
+  </si>
+  <si>
+    <t>段yuanhao-饿了么清结算产品专家</t>
+  </si>
+  <si>
+    <t>stranger-同城旅游支付PL</t>
+  </si>
+  <si>
+    <t>鄢回-易宝支付产品总监</t>
+  </si>
+  <si>
+    <t>齐小七-连连银通电子支付产品总监</t>
+  </si>
+  <si>
+    <t>张晓东-通联支付主管</t>
+  </si>
+  <si>
+    <t>keane-互联网基金产品经理</t>
+  </si>
+  <si>
+    <t>廖惠君-湖北农信研发中心技术经理</t>
+  </si>
+  <si>
+    <t>廖伟池-网商银行产品经理</t>
+  </si>
+  <si>
+    <t>许静洋-同程金服产品</t>
+  </si>
+  <si>
+    <t>Adela-宜信产品经理</t>
+  </si>
+  <si>
+    <t>夏莹-百度钱包PM</t>
+  </si>
+  <si>
+    <t>Coery-农金圈金融服务PL</t>
+  </si>
+  <si>
+    <t>雪鹰-架构师-快捷通</t>
+  </si>
+  <si>
+    <t>杨继军-联想电商平台架构师</t>
+  </si>
+  <si>
+    <t>余铭-国泰君安-产品</t>
+  </si>
+  <si>
+    <t>左晨-杭州-开发</t>
+  </si>
+  <si>
+    <t>郭程-微信支付商户运营</t>
+  </si>
+  <si>
+    <t>CSII-崔奕</t>
+  </si>
+  <si>
+    <t>jaywong-有赞技术总监</t>
+  </si>
+  <si>
+    <t>张宇杰 中国银行对公渠道PM</t>
+  </si>
+  <si>
+    <t>KyleC-汇付天下-风控经理</t>
+  </si>
+  <si>
+    <t>Nada-ping++PM</t>
+  </si>
+  <si>
+    <t>卢明樊</t>
+  </si>
+  <si>
+    <t>清烽-同盾科技-风控运营</t>
+  </si>
+  <si>
+    <t>Kelly-美团支付PM</t>
+  </si>
+  <si>
+    <t>刘永帅-自如技术-北京</t>
+  </si>
+  <si>
+    <t>Ben-富友-产品</t>
+  </si>
+  <si>
+    <t>亚楠-易宝支付PM</t>
+  </si>
+  <si>
+    <t>小冰 云先知 技术 杭州</t>
+  </si>
+  <si>
+    <t>MaYinghui-青岛银行架构师</t>
+  </si>
+  <si>
+    <t>Jack-Bluepay支付部门技术PL</t>
+  </si>
+  <si>
+    <t>胡新松-银联</t>
+  </si>
+  <si>
+    <t>Jack-捷信消费金融技术主管</t>
+  </si>
+  <si>
+    <t>FLD-卡说技术总监</t>
+  </si>
+  <si>
+    <t>丰瑞祥-PM-林秀</t>
+  </si>
+  <si>
+    <t>朱晓光</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>路如毅-互</t>
+  </si>
+  <si>
+    <t>雪鹰-架构师-快捷通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道管理、渠道接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张宇杰 中国银行对公渠道PM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>郭芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鑫-开发总监 中金支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>支付清结算流程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李钦珑-深圳优讯-PM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李兴-有赞技术专家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有赞支付架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄根华-民生易贷产品总监</t>
-  </si>
-  <si>
-    <t>银行存管系统</t>
-  </si>
-  <si>
-    <t>张泽雄-民生金服 项目总监</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +1882,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,7 +1972,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -596,10 +1987,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>489</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -611,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>485</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -623,11 +2014,15 @@
         <v>42874</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -655,10 +2050,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -670,10 +2065,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -684,8 +2079,12 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -695,8 +2094,12 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -704,9 +2107,11 @@
         <v>42881</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
@@ -724,7 +2129,7 @@
         <v>42883</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -735,7 +2140,7 @@
         <v>42884</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -746,7 +2151,7 @@
         <v>42885</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -757,7 +2162,7 @@
         <v>42886</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -778,9 +2183,7 @@
       <c r="A23" s="2">
         <v>42888</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -790,4 +2193,2298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A455"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A393" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A394" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A395" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A396" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A397" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A398" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A400" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A402" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A403" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A406" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A408" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/attach/群内交流情况.xlsx
+++ b/attach/群内交流情况.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="494">
   <si>
     <t>预付卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1528,6 +1528,22 @@
   </si>
   <si>
     <t>支付清结算流程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khan_工行架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1535,7 +1551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,6 +1564,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1589,7 +1621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1597,6 +1629,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,7 +1920,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2064,13 +2102,15 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -2112,7 +2152,9 @@
       <c r="C16" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2128,9 +2170,6 @@
       <c r="A18" s="2">
         <v>42883</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2140,9 +2179,11 @@
         <v>42884</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
@@ -2151,9 +2192,11 @@
         <v>42885</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
@@ -2162,9 +2205,11 @@
         <v>42886</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
@@ -2173,7 +2218,7 @@
         <v>42887</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2183,7 +2228,9 @@
       <c r="A23" s="2">
         <v>42888</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>

--- a/attach/群内交流情况.xlsx
+++ b/attach/群内交流情况.xlsx
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2087,10 +2087,10 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1"/>

--- a/attach/群内交流情况.xlsx
+++ b/attach/群内交流情况.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="6945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="未发言的人员" localSheetId="1">Sheet2!$A$2:$A$498</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +27,20 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="未发言的人员" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Administrator\Desktop\未发言的人员.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="554">
   <si>
     <t>预付卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,1406 +159,1607 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老熊-爱奇艺-技术经理-北京</t>
-  </si>
-  <si>
     <t>Conny-惠瀜-PM-杭州</t>
   </si>
   <si>
-    <t>会唱歌的石头_翼支付_广州</t>
-  </si>
-  <si>
     <t>李紫建-丰瑞祥VP-北京</t>
   </si>
   <si>
+    <t>小莫-康辉-北京</t>
+  </si>
+  <si>
+    <t>七七-明特-北京</t>
+  </si>
+  <si>
+    <t>沈冲-支付宝-杭州</t>
+  </si>
+  <si>
+    <t>Season-快付通-深圳</t>
+  </si>
+  <si>
+    <t>小吴_产品-承泰-上海</t>
+  </si>
+  <si>
+    <t>atom-汇付-产品-上海</t>
+  </si>
+  <si>
+    <t>黄勇发-途牛-南京</t>
+  </si>
+  <si>
+    <t>广发-龙羽-开发经理</t>
+  </si>
+  <si>
+    <t>Mahone-小牛在线-开发-深圳</t>
+  </si>
+  <si>
+    <t>owl～汇付～Pm~上海</t>
+  </si>
+  <si>
+    <t>阿杜-微众银行-程序员-深圳</t>
+  </si>
+  <si>
+    <t>小Q－支付宝－杭州</t>
+  </si>
+  <si>
+    <t>vincent-美团-北京</t>
+  </si>
+  <si>
+    <t>车车_58到家_产品_北京</t>
+  </si>
+  <si>
+    <t>康典-Garena-支付pm-新加坡</t>
+  </si>
+  <si>
+    <t>coral-盈华-产品-深圳</t>
+  </si>
+  <si>
+    <t>郭芬-中央结算公司</t>
+  </si>
+  <si>
+    <t>木刀-中天智慧-北京</t>
+  </si>
+  <si>
+    <t>人保金服乔阳</t>
+  </si>
+  <si>
+    <t>Schenchan-有赞</t>
+  </si>
+  <si>
+    <t>周红仁-去哪儿支付</t>
+  </si>
+  <si>
+    <t>呼呼-汇中金融产品经理</t>
+  </si>
+  <si>
+    <t>Ping++徐志涛</t>
+  </si>
+  <si>
+    <t>传奇-链家支付产品</t>
+  </si>
+  <si>
+    <t>李晓勇-网银架构师</t>
+  </si>
+  <si>
+    <t>李桂明-易宝支付-北京</t>
+  </si>
+  <si>
+    <t>刘杰-联通支付架构总监</t>
+  </si>
+  <si>
+    <t>Andy-银狐CTO</t>
+  </si>
+  <si>
+    <t>在路上-杉德支付架构</t>
+  </si>
+  <si>
+    <t>Richard-裕维金服技术负责</t>
+  </si>
+  <si>
+    <t>冷暖自知-风控 裕福支付 北京</t>
+  </si>
+  <si>
+    <t>sll-宜人贷-产品经理</t>
+  </si>
+  <si>
+    <t>尹月胜-盒子支付-深圳</t>
+  </si>
+  <si>
+    <t>王qz-玖富支付</t>
+  </si>
+  <si>
+    <t>杨焱-工商银行 产品经理</t>
+  </si>
+  <si>
+    <t>牙印儿-新浪支付产品经理</t>
+  </si>
+  <si>
+    <t>顾尚杰-阿里-支付</t>
+  </si>
+  <si>
+    <t>大树-快钱产品经理</t>
+  </si>
+  <si>
+    <t>Doni-美团-支付产品</t>
+  </si>
+  <si>
+    <t>赵艺璇-唯品会-支付风控</t>
+  </si>
+  <si>
+    <t>yinch-滴滴金融-研发</t>
+  </si>
+  <si>
+    <t>蒋蕾-唯品会 支付业务 架构师</t>
+  </si>
+  <si>
+    <t>黄冈-北京敦煌网高级产品经理</t>
+  </si>
+  <si>
+    <t>人生几何-农行软开 快捷支付开发</t>
+  </si>
+  <si>
+    <t>三先生-易联汇华-金融产品经理</t>
+  </si>
+  <si>
+    <t>Fiona-支付结算产品经理-优酷</t>
+  </si>
+  <si>
+    <t>Bison-拉卡拉北京网络金融部副总</t>
+  </si>
+  <si>
+    <t>蘑菇街_陈宗</t>
+  </si>
+  <si>
+    <t>张彦龙-光大电子银行-郑州</t>
+  </si>
+  <si>
+    <t>leona-ping++产品</t>
+  </si>
+  <si>
+    <t>钟文帅-移付宝科技-产品经理</t>
+  </si>
+  <si>
+    <t>高顺生_瑞钱宝_北京</t>
+  </si>
+  <si>
+    <t>途牛旅游网王磊</t>
+  </si>
+  <si>
+    <t>啵🍭板糖-产品专员 途牛</t>
+  </si>
+  <si>
+    <t>范文敏-农业银行高级产品经理</t>
+  </si>
+  <si>
+    <t>刘辉妙-洋码头-技术总监</t>
+  </si>
+  <si>
+    <t>刘贞平-支付产品经理，捷易付</t>
+  </si>
+  <si>
+    <t>徐俊-产品经理-量化派</t>
+  </si>
+  <si>
+    <t>王杰瑜-支付产品经理-中金汇通</t>
+  </si>
+  <si>
+    <t>xiaOv-兴业银行</t>
+  </si>
+  <si>
+    <t>孙友群-O2O支付产品经理招商信用卡</t>
+  </si>
+  <si>
+    <t>chaney-技术总监，环球易购</t>
+  </si>
+  <si>
+    <t>胡圣 支付产品经理 猪八戒网</t>
+  </si>
+  <si>
+    <t>张小凡-支付产品经理-驴妈妈旅游</t>
+  </si>
+  <si>
+    <t>webber-研发总监，途牛</t>
+  </si>
+  <si>
+    <t>田浩沛-银生宝电子支付公司技术总</t>
+  </si>
+  <si>
+    <t>郑丽娟-通联-产品经理</t>
+  </si>
+  <si>
+    <t>Flyer-信用风险审核 paypal 上海</t>
+  </si>
+  <si>
+    <t>Pat-海尔互金架构师</t>
+  </si>
+  <si>
+    <t>pangning-安邦集团收付团队研发</t>
+  </si>
+  <si>
+    <t>hardy-唯品会金融</t>
+  </si>
+  <si>
+    <t>潘诚-拉卡拉-产品经理</t>
+  </si>
+  <si>
+    <t>cp.up前融宝风控leader</t>
+  </si>
+  <si>
+    <t>suevip-技术经理 畅捷通 北京</t>
+  </si>
+  <si>
+    <t>乐富支付产品经理</t>
+  </si>
+  <si>
+    <t>ls.miao-支付风控工程师 网易金融</t>
+  </si>
+  <si>
+    <t>Dylan-支付后台开发-美团</t>
+  </si>
+  <si>
+    <t>戴斌-招行信用卡</t>
+  </si>
+  <si>
+    <t>Carina-陆金所产品</t>
+  </si>
+  <si>
+    <t>黄侃B站产品</t>
+  </si>
+  <si>
+    <t>宋林-汇联金融架构师</t>
+  </si>
+  <si>
+    <t>吴昊 中国支付通</t>
+  </si>
+  <si>
+    <t>吴锦涛 和创金服</t>
+  </si>
+  <si>
+    <t>李通，社区半径产品专家</t>
+  </si>
+  <si>
+    <t>路杨 嘉联支付产品</t>
+  </si>
+  <si>
+    <t>木老-广东人行支付结算科</t>
+  </si>
+  <si>
+    <t>徐玮 理房通支付开发经理</t>
+  </si>
+  <si>
+    <t>闪闪-联通支付产品经理</t>
+  </si>
+  <si>
+    <t>王鹏-北京集奥聚合科技产品总监</t>
+  </si>
+  <si>
+    <t>昕小姐-1号店产品</t>
+  </si>
+  <si>
+    <t>潘儒刚-连连支付PM</t>
+  </si>
+  <si>
+    <t>陈孟军-鄞州银行-开发PL</t>
+  </si>
+  <si>
+    <t>李丹-风控经理-双乾支付</t>
+  </si>
+  <si>
+    <t>李子枞-齐商银行 电子银行部</t>
+  </si>
+  <si>
+    <t>陈琳-阿里巴巴</t>
+  </si>
+  <si>
+    <t>WillYang-嘉联支付-架构师</t>
+  </si>
+  <si>
+    <t>落雪飞花-农信互联-开发经理</t>
+  </si>
+  <si>
+    <t>许巍-微盟-支付系统</t>
+  </si>
+  <si>
+    <t>EagleCheng-兴业银行架构师</t>
+  </si>
+  <si>
+    <t>途牛陈世宏</t>
+  </si>
+  <si>
+    <t>李刚-芯火科技CEO</t>
+  </si>
+  <si>
+    <t>朱雄新-广发支付组</t>
+  </si>
+  <si>
+    <t>惊鸿-付钱拉PM</t>
+  </si>
+  <si>
+    <t>谭志晖-开联通副总</t>
+  </si>
+  <si>
+    <t>fangfang-随行付清结算</t>
+  </si>
+  <si>
+    <t>李小-交通银行商户运营 支付PM</t>
+  </si>
+  <si>
+    <t>降峰-百度金融</t>
+  </si>
+  <si>
+    <t>上海块钱业务分析师</t>
+  </si>
+  <si>
+    <t>Burn-B站支付产品</t>
+  </si>
+  <si>
+    <t>陈琳 中移动PM</t>
+  </si>
+  <si>
+    <t>彭睿-奇虎360金融支付PM</t>
+  </si>
+  <si>
+    <t>老周-苏宁金融</t>
+  </si>
+  <si>
+    <t>云峰-数信-风控-北京</t>
+  </si>
+  <si>
+    <t>王宝茁-量化派PM</t>
+  </si>
+  <si>
+    <t>常露-通联支付-跨境支付产品</t>
+  </si>
+  <si>
+    <t>Marily-易联支付PM</t>
+  </si>
+  <si>
+    <t>汪森-翼支付PM</t>
+  </si>
+  <si>
+    <t>老樊-滴滴技术专家</t>
+  </si>
+  <si>
+    <t>一wan白水-pingpong跨境金融PM</t>
+  </si>
+  <si>
+    <t>赵少龙-平安信托工程师</t>
+  </si>
+  <si>
+    <t>尹琎-深圳优融PM</t>
+  </si>
+  <si>
+    <t>张叶-付费通-支付PM</t>
+  </si>
+  <si>
+    <t>董泽勇-重庆易极付-支付PL</t>
+  </si>
+  <si>
+    <t>李行-途牛支付中心研发总监</t>
+  </si>
+  <si>
+    <t>梅铮-农行网络支付处</t>
+  </si>
+  <si>
+    <t>李征烈-钱通支付PM</t>
+  </si>
+  <si>
+    <t>KentZhu</t>
+  </si>
+  <si>
+    <t>郭峰-钱方好近支付PM</t>
+  </si>
+  <si>
+    <t>满月明 中移动资金归集负责</t>
+  </si>
+  <si>
+    <t>Caligula-建行主机系统建设</t>
+  </si>
+  <si>
+    <t>萌小喵-爱贝计费高级PM</t>
+  </si>
+  <si>
+    <t>雨人-百度钱包-工程师</t>
+  </si>
+  <si>
+    <t>王燕强-房天下-支付网关PL</t>
+  </si>
+  <si>
+    <t>朱海军-腾讯</t>
+  </si>
+  <si>
+    <t>华-南京亚软-IT总监</t>
+  </si>
+  <si>
+    <t>大亮-易宝支付-工程师</t>
+  </si>
+  <si>
+    <t>Boxer-桔子理财-技术总监</t>
+  </si>
+  <si>
+    <t>大宇-快马医疗-CTO</t>
+  </si>
+  <si>
+    <t>littlehero-运满满-PM</t>
+  </si>
+  <si>
+    <t>汪晓明-什马金融-CTO</t>
+  </si>
+  <si>
+    <t>zhangjx-朋来先敬-CTO</t>
+  </si>
+  <si>
+    <t>Tim-魔线科技-产品总监</t>
+  </si>
+  <si>
+    <t>小臣-唯品会-技术开发</t>
+  </si>
+  <si>
+    <t>李钦珑-深圳优讯-PM</t>
+  </si>
+  <si>
+    <t>wantasy-壹钱包-数据分析</t>
+  </si>
+  <si>
+    <t>Michael-国泰君安-研发－上海</t>
+  </si>
+  <si>
+    <t>张长工-上海银行互金部-PM</t>
+  </si>
+  <si>
+    <t>sunshine-苏宁金融</t>
+  </si>
+  <si>
+    <t>Charle-跨境通-清结算PM</t>
+  </si>
+  <si>
+    <t>韩廷森-银联商务PM</t>
+  </si>
+  <si>
+    <t>崔莹峰-恒昌利通-架构</t>
+  </si>
+  <si>
+    <t>周亮-找钢网-金融系统PL</t>
+  </si>
+  <si>
+    <t>white-明特量化-后台PM</t>
+  </si>
+  <si>
+    <t>小七-拉卡拉-工程师</t>
+  </si>
+  <si>
+    <t>jacky-讯联数据-研发总监</t>
+  </si>
+  <si>
+    <t>麦芽妈-汇中财富-PM</t>
+  </si>
+  <si>
+    <t>王鑫-网易产品经理</t>
+  </si>
+  <si>
+    <t>淡风林-中移动杭州研发中心PM</t>
+  </si>
+  <si>
+    <t>亡目丁-币港湾PM</t>
+  </si>
+  <si>
+    <t>王向东-卡联科技-PM</t>
+  </si>
+  <si>
+    <t>席纯-随行付-PM</t>
+  </si>
+  <si>
+    <t>王瑞-嘉银金科-技术总监</t>
+  </si>
+  <si>
+    <t>光光-Ping++PL</t>
+  </si>
+  <si>
+    <t>xjx 人行清结算中心经理</t>
+  </si>
+  <si>
+    <t>唐-大件会-CTo</t>
+  </si>
+  <si>
+    <t>椰子-杭州有云科技PM</t>
+  </si>
+  <si>
+    <t>mockingjay-卡行天下架构</t>
+  </si>
+  <si>
+    <t>Tim-深圳百灵鸟-架构</t>
+  </si>
+  <si>
+    <t>sun rain-易贷网PM</t>
+  </si>
+  <si>
+    <t>宏-前海互金PL</t>
+  </si>
+  <si>
+    <t>hanfeng-永辉超市架构师</t>
+  </si>
+  <si>
+    <t>joe-民生银行产品经理</t>
+  </si>
+  <si>
+    <t>superjj-微众银行PM</t>
+  </si>
+  <si>
+    <t>樊晴-广发银行-PM</t>
+  </si>
+  <si>
+    <t>程琳-杉德支付-PM</t>
+  </si>
+  <si>
+    <t>煜-易物网-技术总监</t>
+  </si>
+  <si>
+    <t>郭衍奎-联通支付</t>
+  </si>
+  <si>
+    <t>盛振德-怪咖网络CEO</t>
+  </si>
+  <si>
+    <t>大状-上海迅联数据司</t>
+  </si>
+  <si>
+    <t>李飞-产品经理 掌众金融</t>
+  </si>
+  <si>
+    <t>黄炎-盛京银行</t>
+  </si>
+  <si>
+    <t>徐传-收付通-研发部门经理</t>
+  </si>
+  <si>
+    <t>黑人-易宝支付工程师</t>
+  </si>
+  <si>
+    <t>王晓东-分点点-技术总监</t>
+  </si>
+  <si>
+    <t>李维丹-招商银行</t>
+  </si>
+  <si>
+    <t>patrick-unicorn-蚂蚁金服</t>
+  </si>
+  <si>
+    <t>曹志杨-唯品会主任工程师</t>
+  </si>
+  <si>
+    <t>忘乎所以-腾讯-支付线风控后台开发</t>
+  </si>
+  <si>
+    <t>王彪-平安证券</t>
+  </si>
+  <si>
+    <t>何鹏飞-猪八戒网支付产品经理</t>
+  </si>
+  <si>
+    <t>沈光辉-银联风控-上海</t>
+  </si>
+  <si>
+    <t>Alvin-支付宝-杭州</t>
+  </si>
+  <si>
+    <t>孙辉</t>
+  </si>
+  <si>
+    <t>david-橙子支付-技术总监</t>
+  </si>
+  <si>
+    <t>Yann-阿里无线服务端开发</t>
+  </si>
+  <si>
+    <t>仙贝-中汇支付 技术主管</t>
+  </si>
+  <si>
+    <t>汪皎洁-广发银行技术PL</t>
+  </si>
+  <si>
+    <t>笔尖农民-唐山银行PL</t>
+  </si>
+  <si>
+    <t>祁超-网易支付Java开发</t>
+  </si>
+  <si>
+    <t>勇瀚-微知网络架构</t>
+  </si>
+  <si>
+    <t>黄丽娜 小赢理财PM</t>
+  </si>
+  <si>
+    <t>孙军-中证互联PM</t>
+  </si>
+  <si>
+    <t>zhengchong-中国印钞造币总公司</t>
+  </si>
+  <si>
+    <t>占进冬-科大讯飞-开发组长</t>
+  </si>
+  <si>
+    <t>石-鄞州银行，科技部开发</t>
+  </si>
+  <si>
+    <t>封国辉-广发银行-系统设计</t>
+  </si>
+  <si>
+    <t>武义-农行软开工程师</t>
+  </si>
+  <si>
+    <t>Peter-找钢网-PM</t>
+  </si>
+  <si>
+    <t>钟巍 一达通 开发</t>
+  </si>
+  <si>
+    <t>神与我同zai</t>
+  </si>
+  <si>
+    <t>杨俊 酷宝支付风控合规</t>
+  </si>
+  <si>
+    <t>Danier–移联-支付PM-深圳</t>
+  </si>
+  <si>
+    <t>龚伏兰-爱奇艺-北京</t>
+  </si>
+  <si>
+    <t>罗科勤 银联 风控产品经理</t>
+  </si>
+  <si>
+    <t>张哲-爱奇艺-北京</t>
+  </si>
+  <si>
+    <t>南迪-永乐-架构-北京</t>
+  </si>
+  <si>
+    <t>苏明磊</t>
+  </si>
+  <si>
+    <t>杨培旭</t>
+  </si>
+  <si>
+    <t>lke-复星-支付清结算PM</t>
+  </si>
+  <si>
+    <t>阿兵-美利金融-PL</t>
+  </si>
+  <si>
+    <t>lishuang-富友支付 产品经理</t>
+  </si>
+  <si>
+    <t>龚福燕-猪八戒-产品经理</t>
+  </si>
+  <si>
+    <t>lisp 财付通结算财务</t>
+  </si>
+  <si>
+    <t>Wall-E 爱贝云计费产品主管</t>
+  </si>
+  <si>
+    <t>胡晓蕾中旅银行 项目总监</t>
+  </si>
+  <si>
+    <t>田家宾-有赞-java开发</t>
+  </si>
+  <si>
+    <t>茄子-陆金所-支付部</t>
+  </si>
+  <si>
+    <t>罗强-上海讯联数据 PM</t>
+  </si>
+  <si>
+    <t>吴聪帅-平安银行-研发</t>
+  </si>
+  <si>
+    <t>谢烨</t>
+  </si>
+  <si>
+    <t>杨大兴央金所的资深产品经理</t>
+  </si>
+  <si>
+    <t>Josia-京东-风控</t>
+  </si>
+  <si>
+    <t>张冲</t>
+  </si>
+  <si>
+    <t>木木三寿-平安银行</t>
+  </si>
+  <si>
+    <t>盆栽是个杀手-有赞-清结算</t>
+  </si>
+  <si>
+    <t>荣飞-有赞Java资深工程师</t>
+  </si>
+  <si>
+    <t>黄溢东-中金汇通-开发-厦门</t>
+  </si>
+  <si>
+    <t>陈儒-微众文化-技术总监</t>
+  </si>
+  <si>
+    <t>张雷-AB-研发</t>
+  </si>
+  <si>
+    <t>李伟锋-蘑菇街金融-杭州</t>
+  </si>
+  <si>
+    <t>夏宇-蘑菇街-技术-杭州</t>
+  </si>
+  <si>
+    <t>风姿-蘑菇街-技术-杭州</t>
+  </si>
+  <si>
+    <t>昊天-蘑菇街-技术-杭州</t>
+  </si>
+  <si>
+    <t>楷，事务开发，腾讯，深圳</t>
+  </si>
+  <si>
+    <t>刘金 -有赞-研发-杭州</t>
+  </si>
+  <si>
+    <t>泽-微店-RD-北京</t>
+  </si>
+  <si>
+    <t>宜信-孟凡柱-研发-北京</t>
+  </si>
+  <si>
+    <t>王硕-京东金融-北京</t>
+  </si>
+  <si>
+    <t>李恒军</t>
+  </si>
+  <si>
+    <t>刘恋-海航新生</t>
+  </si>
+  <si>
+    <t>难得糊涂-PM-什马金融</t>
+  </si>
+  <si>
+    <t>Kelly.Z-折800风控主管</t>
+  </si>
+  <si>
+    <t>冯硕-理房通</t>
+  </si>
+  <si>
+    <t>豆角茄子-卡友支付-PM</t>
+  </si>
+  <si>
+    <t>安全第一-产品主管雅酷</t>
+  </si>
+  <si>
+    <t>吕剑辉-杉德-PL</t>
+  </si>
+  <si>
+    <t>陈思洋-东软熙康-PL</t>
+  </si>
+  <si>
+    <t>花生-新网银行PM</t>
+  </si>
+  <si>
+    <t>白涛-建行厦门开发中心项目经理</t>
+  </si>
+  <si>
+    <t>哦哦哦-招商银行卡中心</t>
+  </si>
+  <si>
+    <t>junzhu-招商银行卡中心</t>
+  </si>
+  <si>
+    <t>李承钊</t>
+  </si>
+  <si>
+    <t>乔光-招行卡中心-产品</t>
+  </si>
+  <si>
+    <t>上海乐付-技术Alxes·凯</t>
+  </si>
+  <si>
+    <t>科蓝-研发-崔海波</t>
+  </si>
+  <si>
+    <t>李玉福@农信互联</t>
+  </si>
+  <si>
+    <t>赵业招-sand-开发</t>
+  </si>
+  <si>
+    <t>willhu-财付通-风控</t>
+  </si>
+  <si>
+    <t>Stark-产品经理，银生宝</t>
+  </si>
+  <si>
+    <t>林-杭州银行-PM</t>
+  </si>
+  <si>
+    <t>Jeremy-易物网-产品经理-广州</t>
+  </si>
+  <si>
+    <t>程林－科蓝－北京</t>
+  </si>
+  <si>
+    <t>孔晓光 丰瑞祥CTO</t>
+  </si>
+  <si>
+    <t>Summer 梁夏-丰瑞祥-GM-BJ</t>
+  </si>
+  <si>
+    <t>Allen-盒子支付PM</t>
+  </si>
+  <si>
+    <t>张泽雄-民生金服 项目总监</t>
+  </si>
+  <si>
+    <t>陈从武-去哪儿-技术总监</t>
+  </si>
+  <si>
+    <t>王显斌+中国支付通+上海</t>
+  </si>
+  <si>
+    <t>can-iboxpay-pm-sz</t>
+  </si>
+  <si>
+    <t>韩财光-东软(前)-开发-广州</t>
+  </si>
+  <si>
+    <t>庆耀-优融-技术-深圳</t>
+  </si>
+  <si>
+    <t>肖勇-亿宏-c to</t>
+  </si>
+  <si>
+    <t>理房通卢相宁</t>
+  </si>
+  <si>
+    <t>小北-理房通-资金部</t>
+  </si>
+  <si>
+    <t>坦克-爱贝-深圳</t>
+  </si>
+  <si>
+    <t>颜小刚-爱贝-架构研发-深圳</t>
+  </si>
+  <si>
+    <t>李尚健-爱奇艺-开发</t>
+  </si>
+  <si>
+    <t>夜猫-支付产品经理 自如网</t>
+  </si>
+  <si>
+    <t>王光明-江苏云天翼付-副总</t>
+  </si>
+  <si>
+    <t>徐新才-平安证券PM</t>
+  </si>
+  <si>
+    <t>沈一点-恒生电子-工程师</t>
+  </si>
+  <si>
+    <t>白竹-平安银行-产品经理</t>
+  </si>
+  <si>
+    <t>陈小学学-迅联智付-架构师</t>
+  </si>
+  <si>
+    <t>李艳鹏 - 易宝支付 -架构师 -北京</t>
+  </si>
+  <si>
+    <t>刚强-京东架构师</t>
+  </si>
+  <si>
+    <t>陈跃泉-苏宁架构师</t>
+  </si>
+  <si>
+    <t>C'est la vie-科蓝-PM-北京</t>
+  </si>
+  <si>
+    <t>ray-嘉联支付-产品-深圳</t>
+  </si>
+  <si>
+    <t>W_Y</t>
+  </si>
+  <si>
+    <t>横烟秋-支付宝PM</t>
+  </si>
+  <si>
+    <t>刘朝晨-中行软件中心PM</t>
+  </si>
+  <si>
+    <t>build-去哪儿-QA</t>
+  </si>
+  <si>
+    <t>徐睿-安邦保险-财务共享平台PL</t>
+  </si>
+  <si>
+    <t>邱显-融数金服-支付风控</t>
+  </si>
+  <si>
+    <t>我心悠然-架构师 恒大金服</t>
+  </si>
+  <si>
+    <t>薇-易宝支付，产品经理，Vivian</t>
+  </si>
+  <si>
+    <t>mfb-中科软支付产品负责人</t>
+  </si>
+  <si>
+    <t>唐豪 - 爱益聚合支付（产品）</t>
+  </si>
+  <si>
+    <t>文斌-爱奇艺-安全-上海</t>
+  </si>
+  <si>
+    <t>Addison yang</t>
+  </si>
+  <si>
+    <t>安静-合众-产品</t>
+  </si>
+  <si>
+    <t>杨彧－雅酷－北京</t>
+  </si>
+  <si>
+    <t>Alive-借贷宝-PL</t>
+  </si>
+  <si>
+    <t>王启荣-合众财险CTO</t>
+  </si>
+  <si>
+    <t>龚正-滴滴-支付金融</t>
+  </si>
+  <si>
+    <t>黄朋英-易联支付PM</t>
+  </si>
+  <si>
+    <t>邹成凯-联通支付</t>
+  </si>
+  <si>
+    <t>兰洋-银联</t>
+  </si>
+  <si>
+    <t>周海鹏@中信云平台</t>
+  </si>
+  <si>
+    <t>邹奇峰Tsiffeng-海航合规部</t>
+  </si>
+  <si>
+    <t>李兴-有赞技术专家</t>
+  </si>
+  <si>
+    <t>meet-支付圈-北京</t>
+  </si>
+  <si>
+    <t>蔡云龙 开联通支付</t>
+  </si>
+  <si>
+    <t>李春旸-分期乐-PM</t>
+  </si>
+  <si>
+    <t>盒子先生-架构师，ABW</t>
+  </si>
+  <si>
+    <t>温启明-包商银行 数字银行架构师</t>
+  </si>
+  <si>
+    <t>张猛-天合阳光CTO</t>
+  </si>
+  <si>
+    <t>Aaron-携程金融支付PL</t>
+  </si>
+  <si>
+    <t>freewolf-天津金融资产交易所技术</t>
+  </si>
+  <si>
+    <t>summer-美团产品经理</t>
+  </si>
+  <si>
+    <t>WLX-支付通项目主管</t>
+  </si>
+  <si>
+    <t>wangbo-农行支付系统项目经理</t>
+  </si>
+  <si>
+    <t>党凡-飞凡士CTO</t>
+  </si>
+  <si>
+    <t>段yuanhao-饿了么清结算产品专家</t>
+  </si>
+  <si>
+    <t>stranger-同城旅游支付PL</t>
+  </si>
+  <si>
+    <t>鄢回-易宝支付产品总监</t>
+  </si>
+  <si>
+    <t>齐小七-连连银通电子支付产品总监</t>
+  </si>
+  <si>
+    <t>张晓东-通联支付主管</t>
+  </si>
+  <si>
+    <t>keane-互联网基金产品经理</t>
+  </si>
+  <si>
+    <t>廖惠君-湖北农信研发中心技术经理</t>
+  </si>
+  <si>
+    <t>廖伟池-网商银行产品经理</t>
+  </si>
+  <si>
+    <t>许静洋-同程金服产品</t>
+  </si>
+  <si>
+    <t>Adela-宜信产品经理</t>
+  </si>
+  <si>
+    <t>夏莹-百度钱包PM</t>
+  </si>
+  <si>
+    <t>Coery-农金圈金融服务PL</t>
+  </si>
+  <si>
+    <t>杨继军-联想电商平台架构师</t>
+  </si>
+  <si>
+    <t>CSII-崔奕</t>
+  </si>
+  <si>
+    <t>jaywong-有赞技术总监</t>
+  </si>
+  <si>
+    <t>张宇杰 中国银行对公渠道PM</t>
+  </si>
+  <si>
+    <t>KyleC-汇付天下-风控经理</t>
+  </si>
+  <si>
+    <t>Nada-ping++PM</t>
+  </si>
+  <si>
+    <t>卢明樊</t>
+  </si>
+  <si>
+    <t>清烽-同盾科技-风控运营</t>
+  </si>
+  <si>
+    <t>Kelly-美团支付PM</t>
+  </si>
+  <si>
+    <t>刘永帅-自如技术-北京</t>
+  </si>
+  <si>
+    <t>亚楠-易宝支付PM</t>
+  </si>
+  <si>
+    <t>小冰 云先知 技术 杭州</t>
+  </si>
+  <si>
+    <t>MaYinghui-青岛银行架构师</t>
+  </si>
+  <si>
+    <t>胡新松-银联</t>
+  </si>
+  <si>
+    <t>Jack-捷信消费金融技术主管</t>
+  </si>
+  <si>
+    <t>FLD-卡说技术总监</t>
+  </si>
+  <si>
+    <t>朱晓光</t>
+  </si>
+  <si>
+    <t>雪鹰-架构师-快捷通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道管理、渠道接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇杰 中国银行对公渠道PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鑫-开发总监 中金支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付清结算流程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khan_工行架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李可顺_吉信数据_战略产品</t>
+  </si>
+  <si>
+    <t>泽然-江西银行-研发</t>
+  </si>
+  <si>
+    <t>daniel-希望金融-PM</t>
+  </si>
+  <si>
+    <t>刘毅-证大财富-技术-上海</t>
+  </si>
+  <si>
+    <t>Linxu-携程-产品</t>
+  </si>
+  <si>
+    <t>姚刚-阿里-PD</t>
+  </si>
+  <si>
+    <t>黄文浩-天音通信-产品-北京</t>
+  </si>
+  <si>
+    <t>韩倩-房天下-产品-北京</t>
+  </si>
+  <si>
+    <t>Joker-嘉华-上海</t>
+  </si>
+  <si>
+    <t>张洋-平安信托-产品-深圳</t>
+  </si>
+  <si>
+    <t>Leeyal--支付PM--深圳</t>
+  </si>
+  <si>
+    <t>Robin-平安-上海</t>
+  </si>
+  <si>
+    <t>饶嘉乐-深圳-腾讯</t>
+  </si>
+  <si>
+    <t>大智若愚-翼支付-产品总监</t>
+  </si>
+  <si>
+    <t>小强-海航-PM-北京</t>
+  </si>
+  <si>
+    <t>王新-爱奇艺-项目经理</t>
+  </si>
+  <si>
+    <t>Chess-技术总监 首付游</t>
+  </si>
+  <si>
+    <t>朱丹KG-华兴银行</t>
+  </si>
+  <si>
+    <t>黄菲-富友-产品总监</t>
+  </si>
+  <si>
+    <t>叶林松-微众银行高级产品经理</t>
+  </si>
+  <si>
+    <t>修-拉卡拉-产品-北京</t>
+  </si>
+  <si>
+    <t>林桐-什马金融-数据负责人</t>
+  </si>
+  <si>
+    <t>陈创-兴业数字金融PM</t>
+  </si>
+  <si>
+    <t>李奔-快钱-支付PM</t>
+  </si>
+  <si>
+    <t>陈桂荣 翼支付 -研发组长</t>
+  </si>
+  <si>
+    <t>Allen-一号车交易和支付PM</t>
+  </si>
+  <si>
+    <t>刘伟-猪八戒-高级PM</t>
+  </si>
+  <si>
+    <t>阚建国_工行支付架构师</t>
+  </si>
+  <si>
+    <t>马忠信-联金所-深圳</t>
+  </si>
+  <si>
+    <t>小迷糊 腾讯微信支付产品运营</t>
+  </si>
+  <si>
+    <t>文奇-有赞-技术</t>
+  </si>
+  <si>
+    <t>陈起 人保金融 PL</t>
+  </si>
+  <si>
+    <t>刘佳明-微店</t>
+  </si>
+  <si>
+    <t>劉皇叔-什金融-上海</t>
+  </si>
+  <si>
+    <t>albert郭-招行-产品经理</t>
+  </si>
+  <si>
+    <t>杨继培-微元-PM-杭州</t>
+  </si>
+  <si>
+    <t>suda-乐富-北京</t>
+  </si>
+  <si>
+    <t>张丹丹－理房通－备付金－北京</t>
+  </si>
+  <si>
+    <t>曹锦波-桔子理财架构师</t>
+  </si>
+  <si>
+    <t>乔俊翔-爱又米-支付开发</t>
+  </si>
+  <si>
+    <t>袁军-架构师-快捷通</t>
+  </si>
+  <si>
+    <t>YM-国泰君安-产品</t>
+  </si>
+  <si>
+    <t>左晨-网易支付-开发</t>
+  </si>
+  <si>
+    <t>郭程-微信支付商户运营腾讯</t>
+  </si>
+  <si>
+    <t>Ben富友PM</t>
+  </si>
+  <si>
+    <t>Jacky-Bluepay支付部门技术PL</t>
+  </si>
+  <si>
+    <t>祥付-PM-林秀</t>
+  </si>
+  <si>
+    <t>路如毅-互金身份认证联盟</t>
+  </si>
+  <si>
+    <t>涂三明-智付电子 技术总监</t>
+  </si>
+  <si>
+    <t>雷敏-深圳金融电子结算中心PM</t>
+  </si>
+  <si>
+    <t>程文东-拉卡拉PL</t>
+  </si>
+  <si>
+    <t>JianYongWu-支付通技术总监</t>
+  </si>
+  <si>
+    <t>徐萍 途牛产品总监</t>
+  </si>
+  <si>
+    <t>JEA-阿里影业-高级产品经理</t>
+  </si>
+  <si>
+    <t>thq-51信用卡</t>
+  </si>
+  <si>
+    <t>谭德伟-易宝支付</t>
+  </si>
+  <si>
+    <t>刘洪明-便利蜂支付</t>
+  </si>
+  <si>
+    <t>付生廷-为源信息</t>
+  </si>
+  <si>
+    <t>吝亮-联动优势</t>
+  </si>
+  <si>
+    <t>肖伶俐-京东支付产品经理</t>
+  </si>
+  <si>
+    <t>zhanggl-新美大架构师</t>
+  </si>
+  <si>
+    <t>万黎-恒丰银行-支付产品PM</t>
+  </si>
+  <si>
+    <t>武伟会-国家电网新能源-PM</t>
+  </si>
+  <si>
+    <t>吕耀辉-维金-PM</t>
+  </si>
+  <si>
+    <t>甘建新-快捷通支付架构师</t>
+  </si>
+  <si>
+    <t>王子硕-便利蜂</t>
+  </si>
+  <si>
+    <t>赵强-top100-主策划</t>
+  </si>
+  <si>
+    <t>于垚斌-微博风控</t>
+  </si>
+  <si>
+    <t>于江宁-银联电子PM</t>
+  </si>
+  <si>
+    <t>阿迪-北京-设计</t>
+  </si>
+  <si>
+    <t>费伟伟-华瑞银行-上海</t>
+  </si>
+  <si>
+    <t>海哥人保金服合规</t>
+  </si>
+  <si>
+    <t>李清华-随手记</t>
+  </si>
+  <si>
+    <t>紫紫-随手记支付产品经理</t>
+  </si>
+  <si>
+    <t>yuxiang-招行杭州分行技术主管</t>
+  </si>
+  <si>
+    <t>李楚华-嘉联支付-资金平台</t>
+  </si>
+  <si>
+    <t>冯威-微保科技- COO</t>
+  </si>
+  <si>
+    <t>少帅-快捷通支付产品</t>
+  </si>
+  <si>
+    <t>Geoff-腾讯-产品</t>
+  </si>
+  <si>
+    <t>雷大进-快捷通技术主管</t>
+  </si>
+  <si>
+    <t>刘险峰-卡牛信用卡-PL</t>
+  </si>
+  <si>
+    <t>掌柜kak-卡友架构</t>
+  </si>
+  <si>
+    <t>爱益iyibank.com-产品-田科</t>
+  </si>
+  <si>
+    <t>pcl-阿里-开发-杭州</t>
+  </si>
+  <si>
+    <t>活动小丑-PPTV-产品</t>
+  </si>
+  <si>
+    <t>郭志涛-信通支付-运营总监</t>
+  </si>
+  <si>
+    <t>瞅瞅-支付宝的产品经理</t>
+  </si>
+  <si>
+    <t>Roger丙-翼支付</t>
+  </si>
+  <si>
+    <t>随手记产品总监</t>
+  </si>
+  <si>
+    <t>张琳 - Ping++ - 上海</t>
+  </si>
+  <si>
+    <t>zhengfangxing</t>
+  </si>
+  <si>
+    <t>段鹏宇-柯蓝支付产品总监</t>
+  </si>
+  <si>
+    <t>Ben-PPTV境外产品负责人</t>
+  </si>
+  <si>
+    <t>王小憨</t>
+  </si>
+  <si>
+    <t>李娜 连连支付风控总监</t>
+  </si>
+  <si>
+    <t>程超-合众-资深技术专家</t>
+  </si>
+  <si>
+    <t>施力熔-平安金融-科技部副总</t>
+  </si>
+  <si>
+    <t>徐洪成-京东金融-pm</t>
+  </si>
+  <si>
+    <t>金鑫</t>
+  </si>
+  <si>
+    <t>夏飞-广东网金</t>
+  </si>
+  <si>
+    <t>hui-基金公司产品</t>
+  </si>
+  <si>
+    <t>郑昕伟-氪信-金融产品总监-上海</t>
+  </si>
+  <si>
+    <t>Lika-易宝金融产品经理</t>
+  </si>
+  <si>
+    <t>龚晓冬-银商账户-产品-上海</t>
+  </si>
+  <si>
+    <t>萍萍妞-联通-产品经理-北京</t>
+  </si>
+  <si>
+    <t>腕越-网联</t>
+  </si>
+  <si>
+    <t>梁川</t>
+  </si>
+  <si>
+    <t>刘亚-平安证券</t>
+  </si>
+  <si>
+    <t>大冷-银联国际支付产品</t>
+  </si>
+  <si>
+    <t>James-最优汇公司创始人</t>
+  </si>
+  <si>
+    <t>vniuv-群星金融（供应链金融）产品</t>
+  </si>
+  <si>
+    <t>阵雨-支付宝-产品</t>
+  </si>
+  <si>
+    <t>TP&amp;Warrior</t>
+  </si>
+  <si>
+    <t>薛又轩-点融网金融机构总监</t>
+  </si>
+  <si>
+    <t>张超千-点融网高级PM</t>
+  </si>
+  <si>
+    <t>MX农行</t>
+  </si>
+  <si>
+    <t>Nick-爱奇艺-支付产品</t>
+  </si>
+  <si>
+    <t>黄波-招行信用卡-USTCS09</t>
+  </si>
+  <si>
+    <t>朱赟9900</t>
+  </si>
+  <si>
+    <t>朱黎明 海尔快捷通</t>
+  </si>
+  <si>
+    <t>郑阳-微汇金融-USTC</t>
+  </si>
+  <si>
+    <t>都沙沙-点融网-支付PM</t>
+  </si>
+  <si>
+    <t>51信用卡支付清算产品</t>
+  </si>
+  <si>
+    <t>Dilys-宜信-清结算</t>
+  </si>
+  <si>
+    <t>胡永</t>
+  </si>
+  <si>
+    <t>成芳</t>
+  </si>
+  <si>
+    <t>王静-头条</t>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生鲜电商</t>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 已分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9月份可以再提供个分享。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月1日再联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚毕业学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定28日分享，母婴相关的主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机安全，下周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月31日分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collin-科蓝-支付项目总监-北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS电商 广州 Feng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniker-华通-开发-上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2P存管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Leo-超大-产品</t>
-  </si>
-  <si>
-    <t>小莫-康辉-北京</t>
-  </si>
-  <si>
-    <t>泽然-江西银行-杭州</t>
-  </si>
-  <si>
-    <t>uniker-华通-开发-上海</t>
-  </si>
-  <si>
-    <t>七七-明特-北京</t>
-  </si>
-  <si>
-    <t>沈冲-支付宝-杭州</t>
-  </si>
-  <si>
-    <t>Season-快付通-深圳</t>
-  </si>
-  <si>
-    <t>小吴_产品-承泰-上海</t>
-  </si>
-  <si>
-    <t>丹尼尔李-希望金融-PM</t>
-  </si>
-  <si>
-    <t>atom-汇付-产品-上海</t>
-  </si>
-  <si>
-    <t>黄勇发-途牛-南京</t>
-  </si>
-  <si>
-    <t>广发-龙羽-开发经理</t>
-  </si>
-  <si>
-    <t>Mahone-小牛在线-开发-深圳</t>
-  </si>
-  <si>
-    <t>owl～汇付～Pm~上海</t>
-  </si>
-  <si>
-    <t>阿杜-微众银行-程序员-深圳</t>
-  </si>
-  <si>
-    <t>刘毅_证大财富_上海</t>
-  </si>
-  <si>
-    <t>Collin-科蓝-支付项目总监-北京</t>
-  </si>
-  <si>
-    <t>阿伟-宜签-上海</t>
-  </si>
-  <si>
-    <t>Linxu-携程-产品-上海</t>
-  </si>
-  <si>
-    <t>新人-阿里-PD</t>
-  </si>
-  <si>
-    <t>小浩-天音通信-产品-北京</t>
-  </si>
-  <si>
-    <t>韩倩-房天下-北京</t>
-  </si>
-  <si>
-    <t>翼支付 广州 Feng</t>
-  </si>
-  <si>
-    <t>小Q－支付宝－杭州</t>
-  </si>
-  <si>
-    <t>Joker-洞悉-上海</t>
-  </si>
-  <si>
-    <t>vincent-美团-北京</t>
-  </si>
-  <si>
-    <t>车车_58到家_产品_北京</t>
-  </si>
-  <si>
-    <t>张洋-平安信托-账户-深圳</t>
-  </si>
-  <si>
-    <t>康典-Garena-支付pm-新加坡</t>
-  </si>
-  <si>
-    <t>candy-易派支付-产品-深圳</t>
-  </si>
-  <si>
-    <t>coral-盈华-产品-深圳</t>
-  </si>
-  <si>
-    <t>宝田爸爸-平安-上海</t>
-  </si>
-  <si>
-    <t>郭芬-中央结算公司</t>
-  </si>
-  <si>
-    <t>木刀-中天智慧-北京</t>
-  </si>
-  <si>
-    <t>人保金服乔阳</t>
-  </si>
-  <si>
-    <t>饶嘉乐-深圳-企鹅</t>
-  </si>
-  <si>
-    <t>大智若愚-翼支付-广州</t>
-  </si>
-  <si>
-    <t>Schenchan-有赞</t>
-  </si>
-  <si>
-    <t>周红仁-去哪儿支付</t>
-  </si>
-  <si>
-    <t>葛晓峰-快钱项目经理</t>
-  </si>
-  <si>
-    <t>呼呼-汇中金融产品经理</t>
-  </si>
-  <si>
-    <t>Ping++徐志涛</t>
-  </si>
-  <si>
-    <t>丁宇-微众银行产品商务</t>
-  </si>
-  <si>
-    <t>传奇-链家支付产品</t>
-  </si>
-  <si>
-    <t>李晓勇-网银架构师</t>
-  </si>
-  <si>
-    <t>李桂明-易宝支付-北京</t>
-  </si>
-  <si>
-    <t>刘杰-联通支付架构总监</t>
-  </si>
-  <si>
-    <t>李文颖-广大银行支付产品经理</t>
-  </si>
-  <si>
-    <t>Andy-银狐CTO</t>
-  </si>
-  <si>
-    <t>在路上-杉德支付架构</t>
-  </si>
-  <si>
-    <t>Richard-裕维金服技术负责</t>
-  </si>
-  <si>
-    <t>冷暖自知-风控 裕福支付 北京</t>
-  </si>
-  <si>
-    <t>sll-宜人贷-产品经理</t>
-  </si>
-  <si>
-    <t>尹月胜-盒子支付-深圳</t>
-  </si>
-  <si>
-    <t>王qz-玖富支付</t>
-  </si>
-  <si>
-    <t>杨焱-工商银行 产品经理</t>
-  </si>
-  <si>
-    <t>牙印儿-新浪支付产品经理</t>
-  </si>
-  <si>
-    <t>顾尚杰-阿里-支付</t>
-  </si>
-  <si>
-    <t>大树-快钱产品经理</t>
-  </si>
-  <si>
-    <t>Doni-美团-支付产品</t>
-  </si>
-  <si>
-    <t>赵艺璇-唯品会-支付风控</t>
-  </si>
-  <si>
-    <t>产品经理 亮马桥 海航集团</t>
-  </si>
-  <si>
-    <t>王新-爱奇艺-北京</t>
-  </si>
-  <si>
-    <t>yinch-滴滴金融-研发</t>
-  </si>
-  <si>
-    <t>蒋蕾-唯品会 支付业务 架构师</t>
-  </si>
-  <si>
-    <t>黄冈-北京敦煌网高级产品经理</t>
-  </si>
-  <si>
-    <t>A祁子-技术总监 首付游</t>
-  </si>
-  <si>
-    <t>人生几何-农行软开 快捷支付开发</t>
-  </si>
-  <si>
-    <t>三先生-易联汇华-金融产品经理</t>
-  </si>
-  <si>
-    <t>Fiona-支付结算产品经理-优酷</t>
-  </si>
-  <si>
-    <t>Bison-拉卡拉北京网络金融部副总</t>
-  </si>
-  <si>
-    <t>汪婷-软开-民生银行-北京</t>
-  </si>
-  <si>
-    <t>小丹KG-华兴银行</t>
-  </si>
-  <si>
-    <t>蘑菇街_陈宗</t>
-  </si>
-  <si>
-    <t>张彦龙-光大电子银行-郑州</t>
-  </si>
-  <si>
-    <t>黄菲-富友-上海</t>
-  </si>
-  <si>
-    <t>leona-ping++产品</t>
-  </si>
-  <si>
-    <t>钟文帅-移付宝科技-产品经理</t>
-  </si>
-  <si>
-    <t>高顺生_瑞钱宝_北京</t>
-  </si>
-  <si>
-    <t>途牛旅游网王磊</t>
-  </si>
-  <si>
-    <t>啵🍭板糖-产品专员 途牛</t>
-  </si>
-  <si>
-    <t>范文敏-农业银行高级产品经理</t>
-  </si>
-  <si>
-    <t>刘辉妙-洋码头-技术总监</t>
-  </si>
-  <si>
-    <t>刘贞平-支付产品经理，捷易付</t>
-  </si>
-  <si>
-    <t>徐俊-产品经理-量化派</t>
-  </si>
-  <si>
-    <t>王杰瑜-支付产品经理-中金汇通</t>
-  </si>
-  <si>
-    <t>xiaOv-兴业银行</t>
-  </si>
-  <si>
-    <t>孙友群-O2O支付产品经理招商信用卡</t>
-  </si>
-  <si>
-    <t>chaney-技术总监，环球易购</t>
-  </si>
-  <si>
-    <t>胡圣 支付产品经理 猪八戒网</t>
-  </si>
-  <si>
-    <t>张小凡-支付产品经理-驴妈妈旅游</t>
-  </si>
-  <si>
-    <t>安菲尔德鹭-微众银行高级产品经理</t>
-  </si>
-  <si>
-    <t>webber-研发总监，途牛</t>
-  </si>
-  <si>
-    <t>田浩沛-银生宝电子支付公司技术总</t>
-  </si>
-  <si>
-    <t>郑丽娟-通联-产品经理</t>
-  </si>
-  <si>
-    <t>Toma-平安产品经理</t>
-  </si>
-  <si>
-    <t>Flyer-信用风险审核 paypal 上海</t>
-  </si>
-  <si>
-    <t>Pat-海尔互金架构师</t>
-  </si>
-  <si>
-    <t>pangning-安邦集团收付团队研发</t>
-  </si>
-  <si>
-    <t>hardy-唯品会金融</t>
-  </si>
-  <si>
-    <t>潘诚-拉卡拉-产品经理</t>
-  </si>
-  <si>
-    <t>cp.up前融宝风控leader</t>
-  </si>
-  <si>
-    <t>拉卡拉-产品</t>
-  </si>
-  <si>
-    <t>suevip-技术经理 畅捷通 北京</t>
-  </si>
-  <si>
-    <t>乐富支付产品经理</t>
-  </si>
-  <si>
-    <t>秦红胜-CTO-共致开源-</t>
-  </si>
-  <si>
-    <t>贾华伟-产品经理--美菜网</t>
-  </si>
-  <si>
-    <t>ls.miao-支付风控工程师 网易金融</t>
-  </si>
-  <si>
-    <t>Dylan-支付后台开发-美团</t>
-  </si>
-  <si>
-    <t>戴斌-招行信用卡</t>
-  </si>
-  <si>
-    <t>Carina-陆金所产品</t>
-  </si>
-  <si>
-    <t>黄侃B站产品</t>
-  </si>
-  <si>
-    <t>宋林-汇联金融架构师</t>
-  </si>
-  <si>
-    <t>拓维信息支付产品经理</t>
-  </si>
-  <si>
-    <t>吴昊 中国支付通</t>
-  </si>
-  <si>
-    <t>吴锦涛 和创金服</t>
-  </si>
-  <si>
-    <t>李通，社区半径产品专家</t>
-  </si>
-  <si>
-    <t>路杨 嘉联支付产品</t>
-  </si>
-  <si>
-    <t>木老-广东人行支付结算科</t>
-  </si>
-  <si>
-    <t>徐玮 理房通支付开发经理</t>
-  </si>
-  <si>
-    <t>闪闪-联通支付产品经理</t>
-  </si>
-  <si>
-    <t>高阳-中信银行信用卡中心架构师</t>
-  </si>
-  <si>
-    <t>王鹏-北京集奥聚合科技产品总监</t>
-  </si>
-  <si>
-    <t>昕小姐-1号店产品</t>
-  </si>
-  <si>
-    <t>潘儒刚-连连支付PM</t>
-  </si>
-  <si>
-    <t>王志誉-网商银行 支付结算产品运营</t>
-  </si>
-  <si>
-    <t>陈孟军-鄞州银行-开发PL</t>
-  </si>
-  <si>
-    <t>李丹-风控经理-双乾支付</t>
-  </si>
-  <si>
-    <t>李子枞-齐商银行 电子银行部</t>
-  </si>
-  <si>
-    <t>陈琳-阿里巴巴</t>
-  </si>
-  <si>
-    <t>林桐-graphsql-风控架构</t>
-  </si>
-  <si>
-    <t>WillYang-嘉联支付-架构师</t>
-  </si>
-  <si>
-    <t>落雪飞花-农信互联-开发经理</t>
-  </si>
-  <si>
-    <t>许巍-微盟-支付系统</t>
-  </si>
-  <si>
-    <t>EagleCheng-兴业银行架构师</t>
-  </si>
-  <si>
-    <t>途牛陈世宏</t>
-  </si>
-  <si>
-    <t>李刚-芯火科技CEO</t>
-  </si>
-  <si>
-    <t>波波-邮储电子银行PM</t>
-  </si>
-  <si>
-    <t>朱雄新-广发支付组</t>
-  </si>
-  <si>
-    <t>惊鸿-付钱拉PM</t>
-  </si>
-  <si>
-    <t>谭志晖-开联通副总</t>
-  </si>
-  <si>
-    <t>潼潼爸-兴业数字金融PM</t>
-  </si>
-  <si>
-    <t>fangfang-随行付清结算</t>
-  </si>
-  <si>
-    <t>李小-交通银行商户运营 支付PM</t>
-  </si>
-  <si>
-    <t>降峰-百度金融</t>
-  </si>
-  <si>
-    <t>上海块钱业务分析师</t>
-  </si>
-  <si>
-    <t>Burn-B站支付产品</t>
-  </si>
-  <si>
-    <t>陈琳 中移动PM</t>
-  </si>
-  <si>
-    <t>彭睿-奇虎360金融支付PM</t>
-  </si>
-  <si>
-    <t>老周-苏宁金融</t>
-  </si>
-  <si>
-    <t>云峰-数信-风控-北京</t>
-  </si>
-  <si>
-    <t>王宝茁-量化派PM</t>
-  </si>
-  <si>
-    <t>李奔-富友-支付PM</t>
-  </si>
-  <si>
-    <t>常露-通联支付-跨境支付产品</t>
-  </si>
-  <si>
-    <t>Marily-易联支付PM</t>
-  </si>
-  <si>
-    <t>汪森-翼支付PM</t>
-  </si>
-  <si>
-    <t>老樊-滴滴技术专家</t>
-  </si>
-  <si>
-    <t>一wan白水-pingpong跨境金融PM</t>
-  </si>
-  <si>
-    <t>garry-研发组长-翼支付</t>
-  </si>
-  <si>
-    <t>赵少龙-平安信托工程师</t>
-  </si>
-  <si>
-    <t>尹琎-深圳优融PM</t>
-  </si>
-  <si>
-    <t>张叶-付费通-支付PM</t>
-  </si>
-  <si>
-    <t>董泽勇-重庆易极付-支付PL</t>
-  </si>
-  <si>
-    <t>李行-途牛支付中心研发总监</t>
-  </si>
-  <si>
-    <t>梅铮-农行网络支付处</t>
-  </si>
-  <si>
-    <t>李征烈-钱通支付PM</t>
-  </si>
-  <si>
-    <t>KentZhu</t>
-  </si>
-  <si>
-    <t>郭峰-钱方好近支付PM</t>
-  </si>
-  <si>
-    <t>满月明 中移动资金归集负责</t>
-  </si>
-  <si>
-    <t>Caligula-建行主机系统建设</t>
-  </si>
-  <si>
-    <t>王晓韡-通联支付-PM</t>
-  </si>
-  <si>
-    <t>萌小喵-爱贝计费高级PM</t>
-  </si>
-  <si>
-    <t>雨人-百度钱包-工程师</t>
-  </si>
-  <si>
-    <t>王燕强-房天下-支付网关PL</t>
-  </si>
-  <si>
-    <t>朱海军-腾讯</t>
-  </si>
-  <si>
-    <t>郝鹏-民生银行-PM</t>
-  </si>
-  <si>
-    <t>Eric乐-工行风控</t>
-  </si>
-  <si>
-    <t>华-南京亚软-IT总监</t>
-  </si>
-  <si>
-    <t>大亮-易宝支付-工程师</t>
-  </si>
-  <si>
-    <t>阿豪-一号车交易和支付PM</t>
-  </si>
-  <si>
-    <t>Boxer-桔子理财-技术总监</t>
-  </si>
-  <si>
-    <t>大宇-快马医疗-CTO</t>
-  </si>
-  <si>
-    <t>littlehero-运满满-PM</t>
-  </si>
-  <si>
-    <t>汪晓明-什马金融-CTO</t>
-  </si>
-  <si>
-    <t>zhangjx-朋来先敬-CTO</t>
-  </si>
-  <si>
-    <t>Tim-魔线科技-产品总监</t>
-  </si>
-  <si>
-    <t>小臣-唯品会-技术开发</t>
-  </si>
-  <si>
-    <t>李钦珑-深圳优讯-PM</t>
-  </si>
-  <si>
-    <t>wantasy-壹钱包-数据分析</t>
-  </si>
-  <si>
-    <t>Michael-国泰君安-研发－上海</t>
-  </si>
-  <si>
-    <t>张长工-上海银行互金部-PM</t>
-  </si>
-  <si>
-    <t>sunshine-苏宁金融</t>
-  </si>
-  <si>
-    <t>圆-猪八戒-高级PM</t>
-  </si>
-  <si>
-    <t>Charle-跨境通-清结算PM</t>
-  </si>
-  <si>
-    <t>韩廷森-银联商务PM</t>
-  </si>
-  <si>
-    <t>崔莹峰-恒昌利通-架构</t>
-  </si>
-  <si>
-    <t>周亮-找钢网-金融系统PL</t>
-  </si>
-  <si>
-    <t>white-明特量化-后台PM</t>
-  </si>
-  <si>
-    <t>小七-拉卡拉-工程师</t>
-  </si>
-  <si>
-    <t>jacky-讯联数据-研发总监</t>
-  </si>
-  <si>
-    <t>麦芽妈-汇中财富-PM</t>
-  </si>
-  <si>
-    <t>王鑫-网易产品经理</t>
-  </si>
-  <si>
-    <t>淡风林-中移动杭州研发中心PM</t>
-  </si>
-  <si>
-    <t>亡目丁-币港湾PM</t>
-  </si>
-  <si>
-    <t>王向东-卡联科技-PM</t>
-  </si>
-  <si>
-    <t>席纯-随行付-PM</t>
-  </si>
-  <si>
-    <t>王瑞-嘉银金科-技术总监</t>
-  </si>
-  <si>
-    <t>光光-Ping++PL</t>
-  </si>
-  <si>
-    <t>xjx 人行清结算中心经理</t>
-  </si>
-  <si>
-    <t>Khan_工行支付架构师</t>
-  </si>
-  <si>
-    <t>唐-大件会-CTo</t>
-  </si>
-  <si>
-    <t>椰子-杭州有云科技PM</t>
-  </si>
-  <si>
-    <t>mockingjay-卡行天下架构</t>
-  </si>
-  <si>
-    <t>Tim-深圳百灵鸟-架构</t>
-  </si>
-  <si>
-    <t>sun rain-易贷网PM</t>
-  </si>
-  <si>
-    <t>宏-前海互金PL</t>
-  </si>
-  <si>
-    <t>hanfeng-永辉超市架构师</t>
-  </si>
-  <si>
-    <t>joe-民生银行产品经理</t>
-  </si>
-  <si>
-    <t>superjj-微众银行PM</t>
-  </si>
-  <si>
-    <t>樊晴-广发银行-PM</t>
-  </si>
-  <si>
-    <t>程琳-杉德支付-PM</t>
-  </si>
-  <si>
-    <t>煜-易物网-技术总监</t>
-  </si>
-  <si>
-    <t>郭衍奎-联通支付</t>
-  </si>
-  <si>
-    <t>盛振德-怪咖网络CEO</t>
-  </si>
-  <si>
-    <t>大状-上海迅联数据司</t>
-  </si>
-  <si>
-    <t>林志豪-腾讯</t>
-  </si>
-  <si>
-    <t>李飞-产品经理 掌众金融</t>
-  </si>
-  <si>
-    <t>黄炎-盛京银行</t>
-  </si>
-  <si>
-    <t>徐传-收付通-研发部门经理</t>
-  </si>
-  <si>
-    <t>黑人-易宝支付工程师</t>
-  </si>
-  <si>
-    <t>王晓东-分点点-技术总监</t>
-  </si>
-  <si>
-    <t>戚士磊-平安银行-网金PM</t>
-  </si>
-  <si>
-    <t>李维丹-招商银行</t>
-  </si>
-  <si>
-    <t>patrick-unicorn-蚂蚁金服</t>
-  </si>
-  <si>
-    <t>曹志杨-唯品会主任工程师</t>
-  </si>
-  <si>
-    <t>忘乎所以-腾讯-支付线风控后台开发</t>
-  </si>
-  <si>
-    <t>王彪-平安证券</t>
-  </si>
-  <si>
-    <t>何鹏飞-猪八戒网支付产品经理</t>
-  </si>
-  <si>
-    <t>沈光辉-银联风控-上海</t>
-  </si>
-  <si>
-    <t>Alvin-支付宝-杭州</t>
-  </si>
-  <si>
-    <t>孙辉</t>
-  </si>
-  <si>
-    <t>david-橙子支付-技术总监</t>
-  </si>
-  <si>
-    <t>SmoothieMa-联金所-PM</t>
-  </si>
-  <si>
-    <t>Yann-阿里无线服务端开发</t>
-  </si>
-  <si>
-    <t>仙贝-中汇支付 技术主管</t>
-  </si>
-  <si>
-    <t>汪皎洁-广发银行技术PL</t>
-  </si>
-  <si>
-    <t>笔尖农民-唐山银行PL</t>
-  </si>
-  <si>
-    <t>hello小迷糊 微信支付产品运营</t>
-  </si>
-  <si>
-    <t>祁超-网易支付Java开发</t>
-  </si>
-  <si>
-    <t>勇瀚-微知网络架构</t>
-  </si>
-  <si>
-    <t>黄丽娜 小赢理财PM</t>
-  </si>
-  <si>
-    <t>孙军-中证互联PM</t>
-  </si>
-  <si>
-    <t>媛媛-鄞州银行</t>
-  </si>
-  <si>
-    <t>May-Amy-杨卢美 鄞州银行 科技部</t>
-  </si>
-  <si>
-    <t>张鑫-开发总监 中金支付</t>
-  </si>
-  <si>
-    <t>zhengchong-中国印钞造币总公司</t>
-  </si>
-  <si>
-    <t>占进冬-科大讯飞-开发组长</t>
-  </si>
-  <si>
-    <t>石-鄞州银行，科技部开发</t>
-  </si>
-  <si>
-    <t>李政-国付宝技术经理</t>
-  </si>
-  <si>
-    <t>封国辉-广发银行-系统设计</t>
-  </si>
-  <si>
-    <t>武义-农行软开工程师</t>
-  </si>
-  <si>
-    <t>文奇-有赞-杭州</t>
-  </si>
-  <si>
-    <t>Peter-找钢网-PM</t>
-  </si>
-  <si>
-    <t>钟巍 一达通 开发</t>
-  </si>
-  <si>
-    <t>神与我同zai</t>
-  </si>
-  <si>
-    <t>杨俊 酷宝支付风控合规</t>
-  </si>
-  <si>
-    <t>Danier–移联-支付PM-深圳</t>
-  </si>
-  <si>
-    <t>庞小璇</t>
-  </si>
-  <si>
-    <t>龚伏兰-爱奇艺-北京</t>
-  </si>
-  <si>
-    <t>罗科勤 银联 风控产品经理</t>
-  </si>
-  <si>
-    <t>张哲-爱奇艺-北京</t>
-  </si>
-  <si>
-    <t>南迪-永乐-架构-北京</t>
-  </si>
-  <si>
-    <t>苏明磊</t>
-  </si>
-  <si>
-    <t>杨培旭</t>
-  </si>
-  <si>
-    <t>刘璋-清结算产品经理 微医</t>
-  </si>
-  <si>
-    <t>lke-复星-支付清结算PM</t>
-  </si>
-  <si>
-    <t>阿兵-美利金融-PL</t>
-  </si>
-  <si>
-    <t>lishuang-富友支付 产品经理</t>
-  </si>
-  <si>
-    <t>龚福燕-猪八戒-产品经理</t>
-  </si>
-  <si>
-    <t>lisp 财付通结算财务</t>
-  </si>
-  <si>
-    <t>Toby-分钱宝-架构师</t>
-  </si>
-  <si>
-    <t>Wall-E 爱贝云计费产品主管</t>
-  </si>
-  <si>
-    <t>胡晓蕾中旅银行 项目总监</t>
-  </si>
-  <si>
-    <t>田家宾-有赞-java开发</t>
-  </si>
-  <si>
-    <t>茄子-陆金所-支付部</t>
-  </si>
-  <si>
-    <t>罗强-上海讯联数据 PM</t>
-  </si>
-  <si>
-    <t>吴聪帅-平安银行-研发</t>
-  </si>
-  <si>
-    <t>谢烨</t>
-  </si>
-  <si>
-    <t>杨大兴央金所的资深产品经理</t>
-  </si>
-  <si>
-    <t>Josia-京东-风控</t>
-  </si>
-  <si>
-    <t>张冲</t>
-  </si>
-  <si>
-    <t>木木三寿-平安银行</t>
-  </si>
-  <si>
-    <t>盆栽是个杀手-有赞-清结算</t>
-  </si>
-  <si>
-    <t>荣飞-有赞Java资深工程师</t>
-  </si>
-  <si>
-    <t>耳东走己 人保金融 PL</t>
-  </si>
-  <si>
-    <t>黄溢东-中金汇通-开发-厦门</t>
-  </si>
-  <si>
-    <t>陈儒-微众文化-技术总监</t>
-  </si>
-  <si>
-    <t>张雷-AB-研发</t>
-  </si>
-  <si>
-    <t>李伟锋-蘑菇街金融-杭州</t>
-  </si>
-  <si>
-    <t>夏宇-蘑菇街-技术-杭州</t>
-  </si>
-  <si>
-    <t>风姿-蘑菇街-技术-杭州</t>
-  </si>
-  <si>
-    <t>昊天-蘑菇街-技术-杭州</t>
-  </si>
-  <si>
-    <t>长路々精彩-工行数据中心-部门经理</t>
-  </si>
-  <si>
-    <t>楷，事务开发，腾讯，深圳</t>
-  </si>
-  <si>
-    <t>刘金 -有赞-研发-杭州</t>
-  </si>
-  <si>
-    <t>泽-微店-RD-北京</t>
-  </si>
-  <si>
-    <t>刘佳明-微店-研发-北京</t>
-  </si>
-  <si>
-    <t>宜信-孟凡柱-研发-北京</t>
-  </si>
-  <si>
-    <t>王硕-京东金融-北京</t>
-  </si>
-  <si>
-    <t>李恒军</t>
-  </si>
-  <si>
-    <t>刘恋-海航新生</t>
-  </si>
-  <si>
-    <t>劉皇叔-什金融-研发-上海</t>
-  </si>
-  <si>
-    <t>难得糊涂-PM-什马金融</t>
-  </si>
-  <si>
-    <t>Kelly.Z-折800风控主管</t>
-  </si>
-  <si>
-    <t>冯硕-理房通</t>
-  </si>
-  <si>
-    <t>豆角茄子-卡友支付-PM</t>
-  </si>
-  <si>
-    <t>安全第一-产品主管雅酷</t>
-  </si>
-  <si>
-    <t>吕剑辉-杉德-PL</t>
-  </si>
-  <si>
-    <t>mark-U掌柜-系统架构</t>
-  </si>
-  <si>
-    <t>陈思洋-东软熙康-PL</t>
-  </si>
-  <si>
-    <t>花生-新网银行PM</t>
-  </si>
-  <si>
-    <t>白涛-建行厦门开发中心项目经理</t>
-  </si>
-  <si>
-    <t>哦哦哦-招商银行卡中心</t>
-  </si>
-  <si>
-    <t>junzhu-招商银行卡中心</t>
-  </si>
-  <si>
-    <t>李承钊</t>
-  </si>
-  <si>
-    <t>乔光-招行卡中心-产品</t>
-  </si>
-  <si>
-    <t>albert郭-招行信用卡-产品经理</t>
-  </si>
-  <si>
-    <t>上海乐付-技术Alxes·凯</t>
-  </si>
-  <si>
-    <t>科蓝-研发-崔海波</t>
-  </si>
-  <si>
-    <t>李玉福@农信互联</t>
-  </si>
-  <si>
-    <t>赵业招-sand-开发</t>
-  </si>
-  <si>
-    <t>willhu-财付通-风控</t>
-  </si>
-  <si>
-    <t>Stark-产品经理，银生宝</t>
-  </si>
-  <si>
-    <t>林-杭州银行-PM</t>
-  </si>
-  <si>
-    <t>Jeremy-易物网-产品经理-广州</t>
-  </si>
-  <si>
-    <t>程林－科蓝－北京</t>
-  </si>
-  <si>
-    <t>孔晓光 丰瑞祥CTO</t>
-  </si>
-  <si>
-    <t>Summer 梁夏-丰瑞祥-GM-BJ</t>
-  </si>
-  <si>
-    <t>xEasy-优畅-深圳</t>
-  </si>
-  <si>
-    <t>Allen-盒子支付PM</t>
-  </si>
-  <si>
-    <t>张泽雄-民生金服 项目总监</t>
-  </si>
-  <si>
-    <t>空-支付产品-苏宁-南京</t>
-  </si>
-  <si>
-    <t>陈从武-去哪儿-技术总监</t>
-  </si>
-  <si>
-    <t>东方-风控策略-去哪儿</t>
-  </si>
-  <si>
-    <t>王显斌+中国支付通+上海</t>
-  </si>
-  <si>
-    <t>Tony-银行-开发副总监</t>
-  </si>
-  <si>
-    <t>can-iboxpay-pm-sz</t>
-  </si>
-  <si>
-    <t>胡德坤</t>
-  </si>
-  <si>
-    <t>韩财光-东软(前)-开发-广州</t>
-  </si>
-  <si>
-    <t>庆耀-优融-技术-深圳</t>
-  </si>
-  <si>
-    <t>肖勇-亿宏-c to</t>
-  </si>
-  <si>
-    <t>理房通卢相宁</t>
-  </si>
-  <si>
-    <t>小北-理房通-资金部</t>
-  </si>
-  <si>
-    <t>坦克-爱贝-深圳</t>
-  </si>
-  <si>
-    <t>颜小刚-爱贝-架构研发-深圳</t>
-  </si>
-  <si>
-    <t>李尚健-爱奇艺-开发</t>
-  </si>
-  <si>
-    <t>夜猫-支付产品经理 自如网</t>
-  </si>
-  <si>
-    <t>颜国平-华为安全专家</t>
-  </si>
-  <si>
-    <t>王光明-江苏云天翼付-副总</t>
-  </si>
-  <si>
-    <t>徐新才-平安证券PM</t>
-  </si>
-  <si>
-    <t>xjffr-盒子支付-风控</t>
-  </si>
-  <si>
-    <t>沈一点-恒生电子-工程师</t>
-  </si>
-  <si>
-    <t>白竹-平安银行-产品经理</t>
-  </si>
-  <si>
-    <t>陈小学学-迅联智付-架构师</t>
-  </si>
-  <si>
-    <t>李艳鹏 - 易宝支付 -架构师 -北京</t>
-  </si>
-  <si>
-    <t>刚强-京东架构师</t>
-  </si>
-  <si>
-    <t>陈跃泉-苏宁架构师</t>
-  </si>
-  <si>
-    <t>C'est la vie-科蓝-PM-北京</t>
-  </si>
-  <si>
-    <t>杨继培-泰然-PM</t>
-  </si>
-  <si>
-    <t>ray-嘉联支付-产品-深圳</t>
-  </si>
-  <si>
-    <t>W_Y</t>
-  </si>
-  <si>
-    <t>Josebruce</t>
-  </si>
-  <si>
-    <t>王瑞</t>
-  </si>
-  <si>
-    <t>横烟秋-支付宝PM</t>
-  </si>
-  <si>
-    <t>刘朝晨-中行软件中心PM</t>
-  </si>
-  <si>
-    <t>build-去哪儿-QA</t>
-  </si>
-  <si>
-    <t>徐睿-安邦保险-财务共享平台PL</t>
-  </si>
-  <si>
-    <t>邱显-融数金服-支付风控</t>
-  </si>
-  <si>
-    <t>我心悠然-架构师 恒大金服</t>
-  </si>
-  <si>
-    <t>薇-易宝支付，产品经理，Vivian</t>
-  </si>
-  <si>
-    <t>mfb-中科软支付产品负责人</t>
-  </si>
-  <si>
-    <t>唐豪 - 爱益聚合支付（产品）</t>
-  </si>
-  <si>
-    <t>张丹丹－理房通－主管－北京</t>
-  </si>
-  <si>
-    <t>文斌-爱奇艺-安全-上海</t>
-  </si>
-  <si>
-    <t>Addison yang</t>
-  </si>
-  <si>
-    <t>安静-合众-产品</t>
-  </si>
-  <si>
-    <t>杨彧－雅酷－北京</t>
-  </si>
-  <si>
-    <t>Alive-借贷宝-PL</t>
-  </si>
-  <si>
-    <t>郑宗荣-中国银联</t>
-  </si>
-  <si>
-    <t>王启荣-合众财险CTO</t>
-  </si>
-  <si>
-    <t>龚正-滴滴-支付金融</t>
-  </si>
-  <si>
-    <t>黄朋英-易联支付PM</t>
-  </si>
-  <si>
-    <t>邹成凯-联通支付</t>
-  </si>
-  <si>
-    <t>兰洋-银联</t>
-  </si>
-  <si>
-    <t>周海鹏@中信云平台</t>
-  </si>
-  <si>
-    <t>邹奇峰Tsiffeng-海航合规部</t>
-  </si>
-  <si>
-    <t>李兴-有赞技术专家</t>
-  </si>
-  <si>
-    <t>meet-支付圈-北京</t>
-  </si>
-  <si>
-    <t>蔡云龙 开联通支付</t>
-  </si>
-  <si>
-    <t>李春旸-分期乐-PM</t>
-  </si>
-  <si>
-    <t>晓波-桔子理财架构师</t>
-  </si>
-  <si>
-    <t>盒子先生-架构师，ABW</t>
-  </si>
-  <si>
-    <t>温启明-包商银行 数字银行架构师</t>
-  </si>
-  <si>
-    <t>张猛-天合阳光CTO</t>
-  </si>
-  <si>
-    <t>Aaron-携程金融支付PL</t>
-  </si>
-  <si>
-    <t>闹闹爸鼻-爱又米-支付开发</t>
-  </si>
-  <si>
-    <t>freewolf-天津金融资产交易所技术</t>
-  </si>
-  <si>
-    <t>summer-美团产品经理</t>
-  </si>
-  <si>
-    <t>WLX-支付通项目主管</t>
-  </si>
-  <si>
-    <t>wangbo-农行支付系统项目经理</t>
-  </si>
-  <si>
-    <t>党凡-飞凡士CTO</t>
-  </si>
-  <si>
-    <t>段yuanhao-饿了么清结算产品专家</t>
-  </si>
-  <si>
-    <t>stranger-同城旅游支付PL</t>
-  </si>
-  <si>
-    <t>鄢回-易宝支付产品总监</t>
-  </si>
-  <si>
-    <t>齐小七-连连银通电子支付产品总监</t>
-  </si>
-  <si>
-    <t>张晓东-通联支付主管</t>
-  </si>
-  <si>
-    <t>keane-互联网基金产品经理</t>
-  </si>
-  <si>
-    <t>廖惠君-湖北农信研发中心技术经理</t>
-  </si>
-  <si>
-    <t>廖伟池-网商银行产品经理</t>
-  </si>
-  <si>
-    <t>许静洋-同程金服产品</t>
-  </si>
-  <si>
-    <t>Adela-宜信产品经理</t>
-  </si>
-  <si>
-    <t>夏莹-百度钱包PM</t>
-  </si>
-  <si>
-    <t>Coery-农金圈金融服务PL</t>
-  </si>
-  <si>
-    <t>雪鹰-架构师-快捷通</t>
-  </si>
-  <si>
-    <t>杨继军-联想电商平台架构师</t>
-  </si>
-  <si>
-    <t>余铭-国泰君安-产品</t>
-  </si>
-  <si>
-    <t>左晨-杭州-开发</t>
-  </si>
-  <si>
-    <t>郭程-微信支付商户运营</t>
-  </si>
-  <si>
-    <t>CSII-崔奕</t>
-  </si>
-  <si>
-    <t>jaywong-有赞技术总监</t>
-  </si>
-  <si>
-    <t>张宇杰 中国银行对公渠道PM</t>
-  </si>
-  <si>
-    <t>KyleC-汇付天下-风控经理</t>
-  </si>
-  <si>
-    <t>Nada-ping++PM</t>
-  </si>
-  <si>
-    <t>卢明樊</t>
-  </si>
-  <si>
-    <t>清烽-同盾科技-风控运营</t>
-  </si>
-  <si>
-    <t>Kelly-美团支付PM</t>
-  </si>
-  <si>
-    <t>刘永帅-自如技术-北京</t>
-  </si>
-  <si>
-    <t>Ben-富友-产品</t>
-  </si>
-  <si>
-    <t>亚楠-易宝支付PM</t>
-  </si>
-  <si>
-    <t>小冰 云先知 技术 杭州</t>
-  </si>
-  <si>
-    <t>MaYinghui-青岛银行架构师</t>
-  </si>
-  <si>
-    <t>Jack-Bluepay支付部门技术PL</t>
-  </si>
-  <si>
-    <t>胡新松-银联</t>
-  </si>
-  <si>
-    <t>Jack-捷信消费金融技术主管</t>
-  </si>
-  <si>
-    <t>FLD-卡说技术总监</t>
-  </si>
-  <si>
-    <t>丰瑞祥-PM-林秀</t>
-  </si>
-  <si>
-    <t>朱晓光</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>路如毅-互</t>
-  </si>
-  <si>
-    <t>雪鹰-架构师-快捷通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道管理、渠道接入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宇杰 中国银行对公渠道PM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鑫-开发总监 中金支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付清结算流程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Khan_工行架构师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差回来后搞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人，不分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1551,7 +1767,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,6 +1796,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1621,7 +1845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,6 +1859,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1652,6 +1885,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="未发言的人员" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1919,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
@@ -2028,7 +2265,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2040,7 +2277,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>485</v>
+        <v>396</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -2055,11 +2292,11 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>486</v>
+        <v>397</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>487</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2109,7 +2346,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>493</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2135,10 +2372,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>484</v>
+        <v>395</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2150,10 +2387,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>490</v>
+        <v>401</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2182,7 +2419,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>491</v>
+        <v>402</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2195,7 +2432,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>491</v>
+        <v>402</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2208,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>492</v>
+        <v>403</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2244,2294 +2481,2642 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A455"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B6" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B9" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B10" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B11" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B12" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B14" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C14" t="s">
+        <v>550</v>
+      </c>
+      <c r="D14" s="7">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B15" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B16" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B17" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C17" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B18" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B19" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C19" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>547</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B22" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>412</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B27" s="5">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>174</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>180</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>198</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>431</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>259</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>264</v>
+        <v>434</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>274</v>
+        <v>435</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>304</v>
+        <v>436</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>315</v>
+        <v>437</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>372</v>
+        <v>441</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>439</v>
+        <v>24</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>24</v>
+        <v>479</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>482</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A457" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A458" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A459" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A460" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A461" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A462" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A464" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A465" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A467" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A468" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A469" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A470" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A471" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A472" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A473" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A474" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A475" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A476" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A477" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A478" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A479" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A480" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A481" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A482" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A483" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A484" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A485" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A486" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A487" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A488" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A489" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A490" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A491" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A492" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A493" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A494" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A495" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A496" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A497" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A498" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>